--- a/interplanetary-data/Uranus/U2.xlsx
+++ b/interplanetary-data/Uranus/U2.xlsx
@@ -13,10 +13,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1591621661" val="971" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1591621661" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1591621661" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1591621661"/>
+      <pm:revision xmlns:pm="smNativeData" day="1591622536" val="971" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1591622536" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1591622536" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1591622536"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">   %path</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t xml:space="preserve">       Lmass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Acdate</t>
   </si>
   <si>
     <t>Atof</t>
@@ -91,7 +88,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591621661" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591622536" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -106,7 +103,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1591621661" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1591622536" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -124,22 +121,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE1EFD8"/>
+        <fgColor rgb="FFFDE9D9"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591621661" type="1" fgLvl="100" fgClr="00E1EFD8" bgLvl="100" bgClr="00E1EFD8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591622536" type="1" fgLvl="100" fgClr="00FDE9D9" bgLvl="100" bgClr="00FDE9D9"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFF79646"/>
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1591621661" type="1" fgLvl="100" fgClr="0070AD47" bgLvl="100" bgClr="0070AD47"/>
+            <pm:shade xmlns:pm="smNativeData" id="1591622536" type="1" fgLvl="100" fgClr="00F79646" bgLvl="100" bgClr="00F79646"/>
           </ext>
         </extLst>
       </patternFill>
@@ -161,7 +158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621661"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622536"/>
         </ext>
       </extLst>
     </border>
@@ -180,7 +177,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621661"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622536"/>
         </ext>
       </extLst>
     </border>
@@ -199,7 +196,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1591621661"/>
+          <pm:border xmlns:pm="smNativeData" id="1591622536"/>
         </ext>
       </extLst>
     </border>
@@ -216,13 +213,16 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1591621661" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1591622536" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1591621661" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1591622536" count="6">
         <pm:color name="Color 24" rgb="A8D08C"/>
         <pm:color name="Color 25" rgb="70AD47"/>
         <pm:color name="Color 26" rgb="E1EFD8"/>
+        <pm:color name="Color 27" rgb="FABF8F"/>
+        <pm:color name="Color 28" rgb="F79646"/>
+        <pm:color name="Color 29" rgb="FDE9D9"/>
       </pm:colors>
     </ext>
   </extLst>
@@ -230,21 +230,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="res" displayName="res" ref="A1:L129" totalsRowShown="0">
-  <autoFilter ref="A1:L129"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="res" displayName="res" ref="A1:K129" totalsRowShown="0">
+  <autoFilter ref="A1:K129"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="   %path" totalsRowLabel="Total"/>
     <tableColumn id="2" name="LC3"/>
     <tableColumn id="3" name="              Ldec"/>
     <tableColumn id="4" name="       Lmass"/>
-    <tableColumn id="5" name="    Acdate"/>
-    <tableColumn id="6" name="Atof"/>
-    <tableColumn id="7" name="Avinf"/>
-    <tableColumn id="8" name="              Adec"/>
-    <tableColumn id="9" name="     Amass"/>
-    <tableColumn id="10" name="             AoiDM"/>
-    <tableColumn id="11" name="             AoiDV"/>
-    <tableColumn id="12" name="  EPprop"/>
+    <tableColumn id="5" name="Atof"/>
+    <tableColumn id="6" name="Avinf"/>
+    <tableColumn id="7" name="              Adec"/>
+    <tableColumn id="8" name="     Amass"/>
+    <tableColumn id="9" name="             AoiDM"/>
+    <tableColumn id="10" name="             AoiDV"/>
+    <tableColumn id="11" name="  EPprop" totalsRowFunction="sum"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -506,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R129"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -518,17 +517,16 @@
     <col min="2" max="2" width="12.857143" customWidth="1"/>
     <col min="3" max="3" width="13.142857" customWidth="1"/>
     <col min="4" max="4" width="11.428571" customWidth="1"/>
-    <col min="5" max="5" width="10.714286" customWidth="1"/>
-    <col min="6" max="6" width="10.428571" customWidth="1"/>
-    <col min="7" max="7" width="13.285714" customWidth="1"/>
-    <col min="8" max="8" width="13.571429" customWidth="1"/>
-    <col min="9" max="9" width="10.857143" customWidth="1"/>
-    <col min="10" max="10" width="14.714286" customWidth="1"/>
-    <col min="11" max="11" width="14.142857" customWidth="1"/>
-    <col min="12" max="12" width="10.142857" customWidth="1"/>
+    <col min="5" max="5" width="10.428571" customWidth="1"/>
+    <col min="6" max="6" width="13.285714" customWidth="1"/>
+    <col min="7" max="7" width="13.571429" customWidth="1"/>
+    <col min="8" max="8" width="10.857143" customWidth="1"/>
+    <col min="9" max="9" width="14.714286" customWidth="1"/>
+    <col min="10" max="10" width="14.142857" customWidth="1"/>
+    <col min="11" max="11" width="10.142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,11 +560,8 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="n">
         <v>3337</v>
       </c>
@@ -580,31 +575,28 @@
         <v>5631.43419999999969</v>
       </c>
       <c r="E2" t="n">
-        <v>20420730</v>
+        <v>4017.75</v>
       </c>
       <c r="F2" t="n">
-        <v>4017.75</v>
+        <v>9.7970328999999996</v>
       </c>
       <c r="G2" t="n">
-        <v>9.7970328999999996</v>
+        <v>63.509523999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>63.509523999999999</v>
+        <v>1918.91969999999992</v>
       </c>
       <c r="I2" t="n">
-        <v>1918.91969999999992</v>
+        <v>2016.54310000000009</v>
       </c>
       <c r="J2" t="n">
-        <v>2016.54310000000009</v>
+        <v>2.28922999999999988</v>
       </c>
       <c r="K2" t="n">
-        <v>2.28922999999999988</v>
-      </c>
-      <c r="L2" t="n">
         <v>946</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:12">
       <c r="A3" t="n">
         <v>3337</v>
       </c>
@@ -618,31 +610,28 @@
         <v>5612.16799999999967</v>
       </c>
       <c r="E3" t="n">
-        <v>20430805</v>
+        <v>4017.75</v>
       </c>
       <c r="F3" t="n">
-        <v>4017.75</v>
+        <v>9.73904339999999991</v>
       </c>
       <c r="G3" t="n">
-        <v>9.73904340000000168</v>
+        <v>59.24268</v>
       </c>
       <c r="H3" t="n">
-        <v>59.24268</v>
+        <v>1927.54240000000004</v>
       </c>
       <c r="I3" t="n">
-        <v>1927.54240000000004</v>
+        <v>1994.63940000000002</v>
       </c>
       <c r="J3" t="n">
-        <v>1994.63940000000002</v>
+        <v>2.26416659999999981</v>
       </c>
       <c r="K3" t="n">
-        <v>2.26416659999999981</v>
-      </c>
-      <c r="L3" t="n">
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:12">
       <c r="A4" t="n">
         <v>3357</v>
       </c>
@@ -656,31 +645,28 @@
         <v>5457.34649999999965</v>
       </c>
       <c r="E4" t="n">
-        <v>20410404</v>
+        <v>4017.75</v>
       </c>
       <c r="F4" t="n">
-        <v>4017.75</v>
+        <v>12.2103160000000006</v>
       </c>
       <c r="G4" t="n">
-        <v>12.2103160000000006</v>
+        <v>47.4950180000000017</v>
       </c>
       <c r="H4" t="n">
-        <v>47.4950180000000017</v>
+        <v>1410.94820000000004</v>
       </c>
       <c r="I4" t="n">
-        <v>1410.94820000000004</v>
+        <v>2733.96939999999995</v>
       </c>
       <c r="J4" t="n">
-        <v>2733.96939999999995</v>
+        <v>3.4345517000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4345517000000001</v>
-      </c>
-      <c r="L4" t="n">
         <v>562.399999999999977</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:12">
       <c r="A5" t="n">
         <v>3357</v>
       </c>
@@ -694,31 +680,28 @@
         <v>5456.40279999999984</v>
       </c>
       <c r="E5" t="n">
-        <v>20410404</v>
+        <v>4017.75</v>
       </c>
       <c r="F5" t="n">
-        <v>4017.75</v>
+        <v>12.2114949999999993</v>
       </c>
       <c r="G5" t="n">
-        <v>12.2114949999999993</v>
+        <v>47.4956480000000028</v>
       </c>
       <c r="H5" t="n">
-        <v>47.4956480000000028</v>
+        <v>1411.74080000000004</v>
       </c>
       <c r="I5" t="n">
-        <v>1411.74080000000004</v>
+        <v>2736.29329999999982</v>
       </c>
       <c r="J5" t="n">
-        <v>2736.29329999999982</v>
+        <v>3.43515730000000019</v>
       </c>
       <c r="K5" t="n">
-        <v>3.43515730000000019</v>
-      </c>
-      <c r="L5" t="n">
         <v>558.399999999999977</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:12">
       <c r="A6" t="n">
         <v>3357</v>
       </c>
@@ -732,31 +715,28 @@
         <v>3412.60260000000017</v>
       </c>
       <c r="E6" t="n">
-        <v>20410519</v>
+        <v>4017.75</v>
       </c>
       <c r="F6" t="n">
-        <v>4017.75</v>
+        <v>11.9138819999999992</v>
       </c>
       <c r="G6" t="n">
-        <v>11.9138819999999992</v>
+        <v>47.3508429999999976</v>
       </c>
       <c r="H6" t="n">
-        <v>47.3508429999999976</v>
+        <v>852.186900000000037</v>
       </c>
       <c r="I6" t="n">
-        <v>852.186900000000037</v>
+        <v>1535.44090000000006</v>
       </c>
       <c r="J6" t="n">
-        <v>1535.44090000000006</v>
+        <v>3.2835719000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>3.2835719000000001</v>
-      </c>
-      <c r="L6" t="n">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:12">
       <c r="A7" t="n">
         <v>3357</v>
       </c>
@@ -770,31 +750,28 @@
         <v>3437.63070000000016</v>
       </c>
       <c r="E7" t="n">
-        <v>20410519</v>
+        <v>4017.75</v>
       </c>
       <c r="F7" t="n">
-        <v>4017.75</v>
+        <v>11.9186379999999996</v>
       </c>
       <c r="G7" t="n">
-        <v>11.9186379999999996</v>
+        <v>47.3530519999999981</v>
       </c>
       <c r="H7" t="n">
-        <v>47.3530519999999981</v>
+        <v>855.712200000000053</v>
       </c>
       <c r="I7" t="n">
-        <v>855.712200000000053</v>
+        <v>1543.59909999999991</v>
       </c>
       <c r="J7" t="n">
-        <v>1543.59909999999991</v>
+        <v>3.28597250000000018</v>
       </c>
       <c r="K7" t="n">
-        <v>3.28597250000000018</v>
-      </c>
-      <c r="L7" t="n">
         <v>288.300000000000011</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:12">
       <c r="A8" t="n">
         <v>3357</v>
       </c>
@@ -808,31 +785,28 @@
         <v>4455.92939999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>20410823</v>
+        <v>4017.75</v>
       </c>
       <c r="F8" t="n">
-        <v>4017.75</v>
+        <v>12.9624780000000008</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9624780000000008</v>
+        <v>50.1588220000000007</v>
       </c>
       <c r="H8" t="n">
-        <v>50.1588220000000007</v>
+        <v>938.807199999999966</v>
       </c>
       <c r="I8" t="n">
-        <v>938.807199999999966</v>
+        <v>2183.17669999999998</v>
       </c>
       <c r="J8" t="n">
-        <v>2183.17669999999998</v>
+        <v>3.82973689999999998</v>
       </c>
       <c r="K8" t="n">
-        <v>3.82973689999999998</v>
-      </c>
-      <c r="L8" t="n">
         <v>583.899999999999977</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:12">
       <c r="A9" t="n">
         <v>3357</v>
       </c>
@@ -846,31 +820,28 @@
         <v>5010.95330000000013</v>
       </c>
       <c r="E9" t="n">
-        <v>20420819</v>
+        <v>4017.75</v>
       </c>
       <c r="F9" t="n">
-        <v>4017.75</v>
+        <v>10.3865429999999996</v>
       </c>
       <c r="G9" t="n">
-        <v>10.3865429999999996</v>
+        <v>50.7762129999999985</v>
       </c>
       <c r="H9" t="n">
-        <v>50.7762129999999985</v>
+        <v>1618.55610000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>1618.55610000000001</v>
+        <v>1984.82369999999992</v>
       </c>
       <c r="J9" t="n">
-        <v>1984.82369999999992</v>
+        <v>2.5508055999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5508055999999999</v>
-      </c>
-      <c r="L9" t="n">
         <v>657.600000000000023</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:12">
       <c r="A10" t="n">
         <v>3357</v>
       </c>
@@ -884,31 +855,28 @@
         <v>5326.11560000000009</v>
       </c>
       <c r="E10" t="n">
-        <v>20400719</v>
+        <v>3652.5</v>
       </c>
       <c r="F10" t="n">
-        <v>3652.5</v>
+        <v>14.0145140000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>14.0145140000000001</v>
+        <v>48.585915</v>
       </c>
       <c r="H10" t="n">
-        <v>48.585915</v>
+        <v>993.489799999999946</v>
       </c>
       <c r="I10" t="n">
-        <v>993.489799999999946</v>
+        <v>2970.41480000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>2970.41480000000001</v>
+        <v>4.41026960000000035</v>
       </c>
       <c r="K10" t="n">
-        <v>4.41026960000000035</v>
-      </c>
-      <c r="L10" t="n">
         <v>612.200000000000045</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:12">
       <c r="A11" t="n">
         <v>3357</v>
       </c>
@@ -922,31 +890,28 @@
         <v>2585.86499999999978</v>
       </c>
       <c r="E11" t="n">
-        <v>20420905</v>
+        <v>4017.75</v>
       </c>
       <c r="F11" t="n">
-        <v>4017.75</v>
+        <v>11.7949450000000002</v>
       </c>
       <c r="G11" t="n">
-        <v>11.7949450000000002</v>
+        <v>55.9501240000000024</v>
       </c>
       <c r="H11" t="n">
-        <v>55.9501240000000024</v>
+        <v>551.41560000000004</v>
       </c>
       <c r="I11" t="n">
-        <v>551.41560000000004</v>
+        <v>964.80453</v>
       </c>
       <c r="J11" t="n">
-        <v>964.80453</v>
+        <v>3.22377210000000014</v>
       </c>
       <c r="K11" t="n">
-        <v>3.22377210000000014</v>
-      </c>
-      <c r="L11" t="n">
         <v>319.600000000000023</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:12">
       <c r="A12" t="n">
         <v>3357</v>
       </c>
@@ -960,31 +925,28 @@
         <v>4401.32570000000032</v>
       </c>
       <c r="E12" t="n">
-        <v>20420313</v>
+        <v>4017.75</v>
       </c>
       <c r="F12" t="n">
-        <v>4017.75</v>
+        <v>10.1985320000000002</v>
       </c>
       <c r="G12" t="n">
-        <v>10.1985320000000002</v>
+        <v>46.649557999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>46.649557999999999</v>
+        <v>1546.02839999999992</v>
       </c>
       <c r="I12" t="n">
-        <v>1546.02839999999992</v>
+        <v>1805.5619999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>1805.5619999999999</v>
+        <v>2.46605220000000003</v>
       </c>
       <c r="K12" t="n">
-        <v>2.46605220000000003</v>
-      </c>
-      <c r="L12" t="n">
         <v>299.699999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:12">
       <c r="A13" t="n">
         <v>3357</v>
       </c>
@@ -998,31 +960,28 @@
         <v>5070.36779999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>20410708</v>
+        <v>3652.5</v>
       </c>
       <c r="F13" t="n">
-        <v>3652.5</v>
+        <v>11.6100259999999995</v>
       </c>
       <c r="G13" t="n">
-        <v>11.6100259999999995</v>
+        <v>47.1928300000000007</v>
       </c>
       <c r="H13" t="n">
-        <v>47.1928300000000007</v>
+        <v>1295.78690000000006</v>
       </c>
       <c r="I13" t="n">
-        <v>1295.78690000000006</v>
+        <v>2165.75529999999981</v>
       </c>
       <c r="J13" t="n">
-        <v>2165.75529999999981</v>
+        <v>3.13169200000000014</v>
       </c>
       <c r="K13" t="n">
-        <v>3.13169200000000014</v>
-      </c>
-      <c r="L13" t="n">
-        <v>858.799999999999955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>858.799999999999841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="n">
         <v>3357</v>
       </c>
@@ -1036,36 +995,33 @@
         <v>4399.74579999999969</v>
       </c>
       <c r="E14" t="n">
-        <v>20420314</v>
+        <v>4017.75</v>
       </c>
       <c r="F14" t="n">
-        <v>4017.75</v>
+        <v>10.1970779999999994</v>
       </c>
       <c r="G14" t="n">
-        <v>10.1970779999999994</v>
+        <v>46.6491279999999975</v>
       </c>
       <c r="H14" t="n">
-        <v>46.6491279999999975</v>
+        <v>1546.03829999999994</v>
       </c>
       <c r="I14" t="n">
-        <v>1546.03829999999994</v>
+        <v>1804.8891000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>1804.8891000000001</v>
+        <v>2.46540120000000007</v>
       </c>
       <c r="K14" t="n">
-        <v>2.46540120000000007</v>
-      </c>
-      <c r="L14" t="n">
         <v>298.800000000000011</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:12">
       <c r="A15" t="n">
         <v>3357</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6152559999999987</v>
+        <v>16.6152559999999951</v>
       </c>
       <c r="C15" t="n">
         <v>-23.3544459999999994</v>
@@ -1074,31 +1030,28 @@
         <v>4367.32319999999982</v>
       </c>
       <c r="E15" t="n">
-        <v>20410318</v>
+        <v>3652.5</v>
       </c>
       <c r="F15" t="n">
-        <v>3652.5</v>
+        <v>12.3171680000000006</v>
       </c>
       <c r="G15" t="n">
-        <v>12.3171680000000006</v>
+        <v>47.5555689999999984</v>
       </c>
       <c r="H15" t="n">
-        <v>47.5555689999999984</v>
+        <v>1109.22929999999997</v>
       </c>
       <c r="I15" t="n">
-        <v>1109.22929999999997</v>
+        <v>2206.14960000000019</v>
       </c>
       <c r="J15" t="n">
-        <v>2206.14960000000019</v>
+        <v>3.48964339999999984</v>
       </c>
       <c r="K15" t="n">
-        <v>3.48964339999999984</v>
-      </c>
-      <c r="L15" t="n">
         <v>302</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:12">
       <c r="A16" t="n">
         <v>3357</v>
       </c>
@@ -1112,31 +1065,28 @@
         <v>4536.48160000000007</v>
       </c>
       <c r="E16" t="n">
-        <v>20420524</v>
+        <v>4017.75</v>
       </c>
       <c r="F16" t="n">
-        <v>4017.75</v>
+        <v>9.81745540000000005</v>
       </c>
       <c r="G16" t="n">
-        <v>9.81745540000000005</v>
+        <v>46.5422239999999974</v>
       </c>
       <c r="H16" t="n">
-        <v>46.5422239999999974</v>
+        <v>1659.86169999999993</v>
       </c>
       <c r="I16" t="n">
-        <v>1659.86169999999993</v>
+        <v>1753.77739999999994</v>
       </c>
       <c r="J16" t="n">
-        <v>1753.77739999999994</v>
+        <v>2.2980855</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2980855</v>
-      </c>
-      <c r="L16" t="n">
         <v>372.800000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:12">
       <c r="A17" t="n">
         <v>3357</v>
       </c>
@@ -1150,31 +1100,28 @@
         <v>4484.07459999999992</v>
       </c>
       <c r="E17" t="n">
-        <v>20410526</v>
+        <v>3652.5</v>
       </c>
       <c r="F17" t="n">
-        <v>3652.5</v>
+        <v>11.8619220000000016</v>
       </c>
       <c r="G17" t="n">
-        <v>11.8619219999999999</v>
+        <v>47.337451999999999</v>
       </c>
       <c r="H17" t="n">
-        <v>47.337451999999999</v>
+        <v>1218.32179999999994</v>
       </c>
       <c r="I17" t="n">
-        <v>1218.32179999999994</v>
+        <v>2167.20629999999983</v>
       </c>
       <c r="J17" t="n">
-        <v>2167.20629999999983</v>
+        <v>3.2573922999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2573922999999998</v>
-      </c>
-      <c r="L17" t="n">
         <v>348.5</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:12">
       <c r="A18" t="n">
         <v>3357</v>
       </c>
@@ -1188,31 +1135,28 @@
         <v>3462.51780000000008</v>
       </c>
       <c r="E18" t="n">
-        <v>20420622</v>
+        <v>4017.75</v>
       </c>
       <c r="F18" t="n">
-        <v>4017.75</v>
+        <v>10.0418310000000002</v>
       </c>
       <c r="G18" t="n">
-        <v>10.0418310000000002</v>
+        <v>47.5619060000000005</v>
       </c>
       <c r="H18" t="n">
-        <v>47.5619060000000005</v>
+        <v>1139.0598</v>
       </c>
       <c r="I18" t="n">
-        <v>1139.0598</v>
+        <v>1276.86500000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>1276.86500000000001</v>
+        <v>2.39635959999999981</v>
       </c>
       <c r="K18" t="n">
-        <v>2.39635959999999981</v>
-      </c>
-      <c r="L18" t="n">
         <v>296.699999999999989</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:12">
       <c r="A19" t="n">
         <v>3357</v>
       </c>
@@ -1226,31 +1170,28 @@
         <v>3447.28369999999995</v>
       </c>
       <c r="E19" t="n">
-        <v>20410624</v>
+        <v>3652.5</v>
       </c>
       <c r="F19" t="n">
-        <v>3652.5</v>
+        <v>12.3942680000000003</v>
       </c>
       <c r="G19" t="n">
-        <v>12.3942680000000003</v>
+        <v>47.6231530000000021</v>
       </c>
       <c r="H19" t="n">
-        <v>47.6231530000000021</v>
+        <v>794.832499999999982</v>
       </c>
       <c r="I19" t="n">
-        <v>794.832499999999982</v>
+        <v>1610.8257000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>1610.8257000000001</v>
+        <v>3.52961349999999996</v>
       </c>
       <c r="K19" t="n">
-        <v>3.52961349999999996</v>
-      </c>
-      <c r="L19" t="n">
         <v>291.600000000000023</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:12">
       <c r="A20" t="n">
         <v>3357</v>
       </c>
@@ -1264,31 +1205,28 @@
         <v>4976.0025999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>20420819</v>
+        <v>4017.75</v>
       </c>
       <c r="F20" t="n">
-        <v>4017.75</v>
+        <v>10.3854580000000016</v>
       </c>
       <c r="G20" t="n">
-        <v>10.3854579999999999</v>
+        <v>50.777000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>50.777000000000001</v>
+        <v>1616.09210000000007</v>
       </c>
       <c r="I20" t="n">
-        <v>1616.09210000000007</v>
+        <v>1981.24630000000002</v>
       </c>
       <c r="J20" t="n">
-        <v>1981.24630000000002</v>
+        <v>2.55031320000000017</v>
       </c>
       <c r="K20" t="n">
-        <v>2.55031320000000017</v>
-      </c>
-      <c r="L20" t="n">
         <v>628.700000000000045</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:12">
       <c r="A21" t="n">
         <v>3357</v>
       </c>
@@ -1302,31 +1240,28 @@
         <v>5357.95610000000033</v>
       </c>
       <c r="E21" t="n">
-        <v>20411222</v>
+        <v>3652.5</v>
       </c>
       <c r="F21" t="n">
-        <v>3652.5</v>
+        <v>11.9940890000000007</v>
       </c>
       <c r="G21" t="n">
-        <v>11.9940890000000007</v>
+        <v>50.317737000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>50.317737000000001</v>
+        <v>1165.73119999999994</v>
       </c>
       <c r="I21" t="n">
-        <v>1165.73119999999994</v>
+        <v>2142.22479999999996</v>
       </c>
       <c r="J21" t="n">
-        <v>2142.22479999999996</v>
+        <v>3.32415159999999998</v>
       </c>
       <c r="K21" t="n">
-        <v>3.32415159999999998</v>
-      </c>
-      <c r="L21" t="n">
         <v>1300</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:12">
       <c r="A22" t="n">
         <v>3357</v>
       </c>
@@ -1340,31 +1275,28 @@
         <v>2945.87469999999985</v>
       </c>
       <c r="E22" t="n">
-        <v>20430830</v>
+        <v>4017.75</v>
       </c>
       <c r="F22" t="n">
-        <v>4017.75</v>
+        <v>9.57559999999999967</v>
       </c>
       <c r="G22" t="n">
-        <v>9.57559999999999967</v>
+        <v>57.313409</v>
       </c>
       <c r="H22" t="n">
-        <v>57.313409</v>
+        <v>911.831300000000056</v>
       </c>
       <c r="I22" t="n">
-        <v>911.831300000000056</v>
+        <v>903.272630000000049</v>
       </c>
       <c r="J22" t="n">
-        <v>903.272630000000049</v>
+        <v>2.19417889999999982</v>
       </c>
       <c r="K22" t="n">
-        <v>2.19417889999999982</v>
-      </c>
-      <c r="L22" t="n">
         <v>380.800000000000011</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:12">
       <c r="A23" t="n">
         <v>3357</v>
       </c>
@@ -1378,31 +1310,28 @@
         <v>2001.81529999999998</v>
       </c>
       <c r="E23" t="n">
-        <v>20420710</v>
+        <v>3652.5</v>
       </c>
       <c r="F23" t="n">
-        <v>3652.5</v>
+        <v>11.5033460000000005</v>
       </c>
       <c r="G23" t="n">
-        <v>11.5033460000000005</v>
+        <v>53.8459700000000012</v>
       </c>
       <c r="H23" t="n">
-        <v>53.8459700000000012</v>
+        <v>247.045999999999992</v>
       </c>
       <c r="I23" t="n">
-        <v>247.045999999999992</v>
+        <v>402.101670000000013</v>
       </c>
       <c r="J23" t="n">
-        <v>402.101670000000013</v>
+        <v>3.0790706000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>3.0790706000000001</v>
-      </c>
-      <c r="L23" t="n">
         <v>602.700000000000045</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:12">
       <c r="A24" t="n">
         <v>3357</v>
       </c>
@@ -1416,31 +1345,28 @@
         <v>4445.00380000000041</v>
       </c>
       <c r="E24" t="n">
-        <v>20430412</v>
+        <v>4017.75</v>
       </c>
       <c r="F24" t="n">
-        <v>4017.75</v>
+        <v>8.57217630000000064</v>
       </c>
       <c r="G24" t="n">
-        <v>8.57217630000000064</v>
+        <v>47.7762820000000019</v>
       </c>
       <c r="H24" t="n">
-        <v>47.7762820000000019</v>
+        <v>1911.86869999999999</v>
       </c>
       <c r="I24" t="n">
-        <v>1911.86869999999999</v>
+        <v>1436.58279999999991</v>
       </c>
       <c r="J24" t="n">
-        <v>1436.58279999999991</v>
+        <v>1.78613890000000008</v>
       </c>
       <c r="K24" t="n">
-        <v>1.78613890000000008</v>
-      </c>
-      <c r="L24" t="n">
         <v>346.600000000000023</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:12">
       <c r="A25" t="n">
         <v>3357</v>
       </c>
@@ -1454,31 +1380,28 @@
         <v>4291.22869999999966</v>
       </c>
       <c r="E25" t="n">
-        <v>20410430</v>
+        <v>3287.25</v>
       </c>
       <c r="F25" t="n">
-        <v>3287.25</v>
+        <v>12.8247739999999997</v>
       </c>
       <c r="G25" t="n">
-        <v>12.8247739999999997</v>
+        <v>47.6713340000000017</v>
       </c>
       <c r="H25" t="n">
-        <v>47.6713340000000017</v>
+        <v>988.878900000000044</v>
       </c>
       <c r="I25" t="n">
-        <v>988.878900000000044</v>
+        <v>2224.52550000000019</v>
       </c>
       <c r="J25" t="n">
-        <v>2224.52550000000019</v>
+        <v>3.75611529999999982</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75611529999999982</v>
-      </c>
-      <c r="L25" t="n">
         <v>327.800000000000011</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:12">
       <c r="A26" t="n">
         <v>3357</v>
       </c>
@@ -1492,31 +1415,28 @@
         <v>4421.3737000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>20420415</v>
+        <v>3652.5</v>
       </c>
       <c r="F26" t="n">
-        <v>3652.5</v>
+        <v>10.4393960000000003</v>
       </c>
       <c r="G26" t="n">
-        <v>10.4393960000000003</v>
+        <v>47.5673960000000022</v>
       </c>
       <c r="H26" t="n">
-        <v>47.5673960000000022</v>
+        <v>1482.43039999999996</v>
       </c>
       <c r="I26" t="n">
-        <v>1482.43039999999996</v>
+        <v>1842.8889999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1842.8889999999999</v>
+        <v>2.57485279999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>2.57485279999999994</v>
-      </c>
-      <c r="L26" t="n">
         <v>346.100000000000023</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:12">
       <c r="A27" t="n">
         <v>3357</v>
       </c>
@@ -1530,31 +1450,28 @@
         <v>4458.63410000000022</v>
       </c>
       <c r="E27" t="n">
-        <v>20430412</v>
+        <v>4017.75</v>
       </c>
       <c r="F27" t="n">
-        <v>4017.75</v>
+        <v>8.57197790000000026</v>
       </c>
       <c r="G27" t="n">
-        <v>8.57197790000000026</v>
+        <v>47.775939000000001</v>
       </c>
       <c r="H27" t="n">
-        <v>47.775939000000001</v>
+        <v>1911.76610000000005</v>
       </c>
       <c r="I27" t="n">
-        <v>1911.76610000000005</v>
+        <v>1436.42499999999995</v>
       </c>
       <c r="J27" t="n">
-        <v>1436.42499999999995</v>
+        <v>1.78606200000000008</v>
       </c>
       <c r="K27" t="n">
-        <v>1.78606200000000008</v>
-      </c>
-      <c r="L27" t="n">
         <v>360.399999999999977</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:12">
       <c r="A28" t="n">
         <v>3357</v>
       </c>
@@ -1568,31 +1485,28 @@
         <v>4286.54590000000007</v>
       </c>
       <c r="E28" t="n">
-        <v>20410429</v>
+        <v>3287.25</v>
       </c>
       <c r="F28" t="n">
-        <v>3287.25</v>
+        <v>12.8315070000000002</v>
       </c>
       <c r="G28" t="n">
-        <v>12.8315070000000002</v>
+        <v>47.6721590000000006</v>
       </c>
       <c r="H28" t="n">
-        <v>47.6721590000000006</v>
+        <v>988.591599999999971</v>
       </c>
       <c r="I28" t="n">
-        <v>988.591599999999971</v>
+        <v>2227.49670000000015</v>
       </c>
       <c r="J28" t="n">
-        <v>2227.49670000000015</v>
+        <v>3.75970210000000016</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75970210000000016</v>
-      </c>
-      <c r="L28" t="n">
         <v>320.5</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:12">
       <c r="A29" t="n">
         <v>3357</v>
       </c>
@@ -1606,31 +1520,28 @@
         <v>4416.36210000000028</v>
       </c>
       <c r="E29" t="n">
-        <v>20420415</v>
+        <v>3652.5</v>
       </c>
       <c r="F29" t="n">
-        <v>3652.5</v>
+        <v>10.4397749999999991</v>
       </c>
       <c r="G29" t="n">
-        <v>10.4397749999999991</v>
+        <v>47.5677159999999972</v>
       </c>
       <c r="H29" t="n">
-        <v>47.5677159999999972</v>
+        <v>1482.06420000000003</v>
       </c>
       <c r="I29" t="n">
-        <v>1482.06420000000003</v>
+        <v>1842.61419999999998</v>
       </c>
       <c r="J29" t="n">
-        <v>1842.61419999999998</v>
+        <v>2.57502580000000014</v>
       </c>
       <c r="K29" t="n">
-        <v>2.57502580000000014</v>
-      </c>
-      <c r="L29" t="n">
         <v>341.699999999999989</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:12">
       <c r="A30" t="n">
         <v>3357</v>
       </c>
@@ -1644,31 +1555,28 @@
         <v>3427.43640000000005</v>
       </c>
       <c r="E30" t="n">
-        <v>20430601</v>
+        <v>4017.75</v>
       </c>
       <c r="F30" t="n">
-        <v>4017.75</v>
+        <v>8.87517350000000071</v>
       </c>
       <c r="G30" t="n">
-        <v>8.87517350000000071</v>
+        <v>51.6002399999999994</v>
       </c>
       <c r="H30" t="n">
-        <v>51.6002399999999994</v>
+        <v>1294.8275000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>1294.8275000000001</v>
+        <v>1059.37869999999998</v>
       </c>
       <c r="J30" t="n">
-        <v>1059.37869999999998</v>
+        <v>1.9053681000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>1.9053681000000001</v>
-      </c>
-      <c r="L30" t="n">
         <v>323.199999999999989</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:12">
       <c r="A31" t="n">
         <v>3357</v>
       </c>
@@ -1682,31 +1590,28 @@
         <v>3396.42740000000003</v>
       </c>
       <c r="E31" t="n">
-        <v>20410806</v>
+        <v>3287.25</v>
       </c>
       <c r="F31" t="n">
-        <v>3287.25</v>
+        <v>13.1052160000000004</v>
       </c>
       <c r="G31" t="n">
-        <v>13.1052160000000004</v>
+        <v>50.130346000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>50.130346000000003</v>
+        <v>689.823999999999955</v>
       </c>
       <c r="I31" t="n">
-        <v>689.823999999999955</v>
+        <v>1660.19640000000004</v>
       </c>
       <c r="J31" t="n">
-        <v>1660.19640000000004</v>
+        <v>3.90663980000000031</v>
       </c>
       <c r="K31" t="n">
-        <v>3.90663980000000031</v>
-      </c>
-      <c r="L31" t="n">
         <v>296.399999999999977</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:12">
       <c r="A32" t="n">
         <v>3357</v>
       </c>
@@ -1720,31 +1625,28 @@
         <v>4753.96960000000036</v>
       </c>
       <c r="E32" t="n">
-        <v>20420126</v>
+        <v>3652.5</v>
       </c>
       <c r="F32" t="n">
-        <v>3652.5</v>
+        <v>11.8009799999999991</v>
       </c>
       <c r="G32" t="n">
-        <v>11.8009799999999991</v>
+        <v>50.5716060000000027</v>
       </c>
       <c r="H32" t="n">
-        <v>50.5716060000000027</v>
+        <v>1032.19440000000009</v>
       </c>
       <c r="I32" t="n">
-        <v>1032.19440000000009</v>
+        <v>1808.71039999999994</v>
       </c>
       <c r="J32" t="n">
-        <v>1808.71039999999994</v>
+        <v>3.22679530000000003</v>
       </c>
       <c r="K32" t="n">
-        <v>3.22679530000000003</v>
-      </c>
-      <c r="L32" t="n">
         <v>1163.09999999999991</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:12">
       <c r="A33" t="n">
         <v>3357</v>
       </c>
@@ -1758,31 +1660,28 @@
         <v>4501.15040000000045</v>
       </c>
       <c r="E33" t="n">
-        <v>20430703</v>
+        <v>4017.75</v>
       </c>
       <c r="F33" t="n">
-        <v>4017.75</v>
+        <v>8.20834400000000031</v>
       </c>
       <c r="G33" t="n">
-        <v>8.20834400000000031</v>
+        <v>47.8308159999999987</v>
       </c>
       <c r="H33" t="n">
-        <v>47.8308159999999987</v>
+        <v>2018.1413</v>
       </c>
       <c r="I33" t="n">
-        <v>2018.1413</v>
+        <v>1366.12760000000003</v>
       </c>
       <c r="J33" t="n">
-        <v>1366.12760000000003</v>
+        <v>1.64763790000000014</v>
       </c>
       <c r="K33" t="n">
-        <v>1.64763790000000014</v>
-      </c>
-      <c r="L33" t="n">
         <v>366.899999999999977</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:12">
       <c r="A34" t="n">
         <v>3357</v>
       </c>
@@ -1796,31 +1695,28 @@
         <v>4431.62209999999959</v>
       </c>
       <c r="E34" t="n">
-        <v>20410708</v>
+        <v>3287.25</v>
       </c>
       <c r="F34" t="n">
-        <v>3287.25</v>
+        <v>12.2838309999999993</v>
       </c>
       <c r="G34" t="n">
-        <v>12.2838309999999993</v>
+        <v>47.6035639999999987</v>
       </c>
       <c r="H34" t="n">
-        <v>47.6035639999999987</v>
+        <v>1120.13699999999994</v>
       </c>
       <c r="I34" t="n">
-        <v>1120.13699999999994</v>
+        <v>2209.79730000000018</v>
       </c>
       <c r="J34" t="n">
-        <v>2209.79730000000018</v>
+        <v>3.4724172000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>3.4724172000000002</v>
-      </c>
-      <c r="L34" t="n">
         <v>351.699999999999989</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:12">
       <c r="A35" t="n">
         <v>3357</v>
       </c>
@@ -1834,31 +1730,28 @@
         <v>3451.60780000000022</v>
       </c>
       <c r="E35" t="n">
-        <v>20420803</v>
+        <v>3652.5</v>
       </c>
       <c r="F35" t="n">
-        <v>3652.5</v>
+        <v>10.4900350000000007</v>
       </c>
       <c r="G35" t="n">
-        <v>10.4900350000000007</v>
+        <v>50.7682610000000025</v>
       </c>
       <c r="H35" t="n">
-        <v>50.7682610000000025</v>
+        <v>1058.00600000000009</v>
       </c>
       <c r="I35" t="n">
-        <v>1058.00600000000009</v>
+        <v>1332.55070000000001</v>
       </c>
       <c r="J35" t="n">
-        <v>1332.55070000000001</v>
+        <v>2.59798349999999978</v>
       </c>
       <c r="K35" t="n">
-        <v>2.59798349999999978</v>
-      </c>
-      <c r="L35" t="n">
         <v>311.100000000000023</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:12">
       <c r="A36" t="n">
         <v>3357</v>
       </c>
@@ -1872,31 +1765,28 @@
         <v>3482.92410000000018</v>
       </c>
       <c r="E36" t="n">
-        <v>20430801</v>
+        <v>4017.75</v>
       </c>
       <c r="F36" t="n">
-        <v>4017.75</v>
+        <v>8.57883430000000047</v>
       </c>
       <c r="G36" t="n">
-        <v>8.57883430000000047</v>
+        <v>51.7171749999999975</v>
       </c>
       <c r="H36" t="n">
-        <v>51.7171749999999975</v>
+        <v>1372.4242999999999</v>
       </c>
       <c r="I36" t="n">
-        <v>1372.4242999999999</v>
+        <v>1033.19119999999998</v>
       </c>
       <c r="J36" t="n">
-        <v>1033.19119999999998</v>
+        <v>1.7887211999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>1.7887211999999999</v>
-      </c>
-      <c r="L36" t="n">
         <v>327.5</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:12">
       <c r="A37" t="n">
         <v>3357</v>
       </c>
@@ -1910,31 +1800,28 @@
         <v>4438.25939999999991</v>
       </c>
       <c r="E37" t="n">
-        <v>20410708</v>
+        <v>3287.25</v>
       </c>
       <c r="F37" t="n">
-        <v>3287.25</v>
+        <v>12.2852259999999998</v>
       </c>
       <c r="G37" t="n">
-        <v>12.2852259999999998</v>
+        <v>47.6036399999999986</v>
       </c>
       <c r="H37" t="n">
-        <v>47.6036399999999986</v>
+        <v>1120.04790000000003</v>
       </c>
       <c r="I37" t="n">
-        <v>1120.04790000000003</v>
+        <v>2210.37390000000005</v>
       </c>
       <c r="J37" t="n">
-        <v>2210.37390000000005</v>
+        <v>3.47313729999999987</v>
       </c>
       <c r="K37" t="n">
-        <v>3.47313729999999987</v>
-      </c>
-      <c r="L37" t="n">
         <v>357.800000000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:12">
       <c r="A38" t="n">
         <v>3357</v>
       </c>
@@ -1948,31 +1835,28 @@
         <v>5456.7511999999997</v>
       </c>
       <c r="E38" t="n">
-        <v>20420910</v>
+        <v>3652.5</v>
       </c>
       <c r="F38" t="n">
-        <v>3652.5</v>
+        <v>10.2522859999999998</v>
       </c>
       <c r="G38" t="n">
-        <v>10.2522859999999998</v>
+        <v>50.7955460000000016</v>
       </c>
       <c r="H38" t="n">
-        <v>50.7955460000000016</v>
+        <v>1753.20650000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>1753.20650000000001</v>
+        <v>2076.37469999999985</v>
       </c>
       <c r="J38" t="n">
-        <v>2076.37469999999985</v>
+        <v>2.49015789999999981</v>
       </c>
       <c r="K38" t="n">
-        <v>2.49015789999999981</v>
-      </c>
-      <c r="L38" t="n">
         <v>877.200000000000045</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:12">
       <c r="A39" t="n">
         <v>3357</v>
       </c>
@@ -1986,31 +1870,28 @@
         <v>3490.14570000000003</v>
       </c>
       <c r="E39" t="n">
-        <v>20440829</v>
+        <v>4017.75</v>
       </c>
       <c r="F39" t="n">
-        <v>4017.75</v>
+        <v>7.98414809999999875</v>
       </c>
       <c r="G39" t="n">
-        <v>7.98414809999999875</v>
+        <v>59.1447909999999979</v>
       </c>
       <c r="H39" t="n">
-        <v>59.1447909999999979</v>
+        <v>1389.88439999999991</v>
       </c>
       <c r="I39" t="n">
-        <v>1389.88439999999991</v>
+        <v>881.096090000000004</v>
       </c>
       <c r="J39" t="n">
-        <v>881.096090000000004</v>
+        <v>1.56486780000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>1.56486780000000003</v>
-      </c>
-      <c r="L39" t="n">
         <v>469.199999999999989</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:12">
       <c r="A40" t="n">
         <v>3357</v>
       </c>
@@ -2024,31 +1905,28 @@
         <v>4515.93140000000039</v>
       </c>
       <c r="E40" t="n">
-        <v>20430806</v>
+        <v>3652.5</v>
       </c>
       <c r="F40" t="n">
-        <v>3652.5</v>
+        <v>8.55023979999999995</v>
       </c>
       <c r="G40" t="n">
-        <v>8.55023979999999995</v>
+        <v>51.6890519999999967</v>
       </c>
       <c r="H40" t="n">
-        <v>51.6890519999999967</v>
+        <v>1893.98029999999994</v>
       </c>
       <c r="I40" t="n">
-        <v>1893.98029999999994</v>
+        <v>1414.3110999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>1414.3110999999999</v>
+        <v>1.77764319999999998</v>
       </c>
       <c r="K40" t="n">
-        <v>1.77764319999999998</v>
-      </c>
-      <c r="L40" t="n">
         <v>457.600000000000023</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:12">
       <c r="A41" t="n">
         <v>3357</v>
       </c>
@@ -2062,31 +1940,28 @@
         <v>3021.47170000000006</v>
       </c>
       <c r="E41" t="n">
-        <v>20450207</v>
+        <v>4017.75</v>
       </c>
       <c r="F41" t="n">
-        <v>4017.75</v>
+        <v>6.55073349999999976</v>
       </c>
       <c r="G41" t="n">
-        <v>6.55073349999999976</v>
+        <v>53.9952189999999987</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9952189999999987</v>
+        <v>1119.7034000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>1119.7034000000001</v>
+        <v>453.431879999999978</v>
       </c>
       <c r="J41" t="n">
-        <v>453.431879999999978</v>
+        <v>1.08365650000000002</v>
       </c>
       <c r="K41" t="n">
-        <v>1.08365650000000002</v>
-      </c>
-      <c r="L41" t="n">
         <v>698.299999999999955</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:12">
       <c r="A42" t="n">
         <v>3357</v>
       </c>
@@ -2100,31 +1975,28 @@
         <v>4369.97069999999985</v>
       </c>
       <c r="E42" t="n">
-        <v>20420601</v>
+        <v>3287.25</v>
       </c>
       <c r="F42" t="n">
-        <v>3287.25</v>
+        <v>10.9105890000000016</v>
       </c>
       <c r="G42" t="n">
-        <v>10.9105889999999999</v>
+        <v>50.7291329999999974</v>
       </c>
       <c r="H42" t="n">
-        <v>50.7291329999999974</v>
+        <v>1317.35159999999996</v>
       </c>
       <c r="I42" t="n">
-        <v>1317.35159999999996</v>
+        <v>1847.48090000000002</v>
       </c>
       <c r="J42" t="n">
-        <v>1847.48090000000002</v>
+        <v>2.79347279999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>2.79347279999999998</v>
-      </c>
-      <c r="L42" t="n">
         <v>455.199999999999989</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:12">
       <c r="A43" t="n">
         <v>3357</v>
       </c>
@@ -2138,31 +2010,28 @@
         <v>4404.57690000000002</v>
       </c>
       <c r="E43" t="n">
-        <v>20430528</v>
+        <v>3652.5</v>
       </c>
       <c r="F43" t="n">
-        <v>3652.5</v>
+        <v>8.89548729999999921</v>
       </c>
       <c r="G43" t="n">
-        <v>8.89548729999999921</v>
+        <v>51.6062409999999971</v>
       </c>
       <c r="H43" t="n">
-        <v>51.6062409999999971</v>
+        <v>1760.07590000000005</v>
       </c>
       <c r="I43" t="n">
-        <v>1760.07590000000005</v>
+        <v>1448.1887999999999</v>
       </c>
       <c r="J43" t="n">
-        <v>1448.1887999999999</v>
+        <v>1.91348640000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>1.91348640000000003</v>
-      </c>
-      <c r="L43" t="n">
         <v>446.300000000000011</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:12">
       <c r="A44" t="n">
         <v>3357</v>
       </c>
@@ -2176,31 +2045,28 @@
         <v>4215.56049999999959</v>
       </c>
       <c r="E44" t="n">
-        <v>20450714</v>
+        <v>4017.75</v>
       </c>
       <c r="F44" t="n">
-        <v>4017.75</v>
+        <v>7.05106569999999966</v>
       </c>
       <c r="G44" t="n">
-        <v>7.05106569999999966</v>
+        <v>61.5432259999999971</v>
       </c>
       <c r="H44" t="n">
-        <v>61.5432259999999971</v>
+        <v>1853.90219999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>1853.90219999999999</v>
+        <v>883.440920000000006</v>
       </c>
       <c r="J44" t="n">
-        <v>883.440920000000006</v>
+        <v>1.24202100000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>1.24202100000000004</v>
-      </c>
-      <c r="L44" t="n">
         <v>728.200000000000045</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:12">
       <c r="A45" t="n">
         <v>3357</v>
       </c>
@@ -2214,31 +2080,28 @@
         <v>4421.61340000000018</v>
       </c>
       <c r="E45" t="n">
-        <v>20420815</v>
+        <v>3287.25</v>
       </c>
       <c r="F45" t="n">
-        <v>3287.25</v>
+        <v>10.4078769999999992</v>
       </c>
       <c r="G45" t="n">
-        <v>10.4078769999999992</v>
+        <v>50.7648020000000031</v>
       </c>
       <c r="H45" t="n">
-        <v>50.7648020000000031</v>
+        <v>1450.83799999999997</v>
       </c>
       <c r="I45" t="n">
-        <v>1450.83799999999997</v>
+        <v>1788.99240000000009</v>
       </c>
       <c r="J45" t="n">
-        <v>1788.99240000000009</v>
+        <v>2.56050049999999985</v>
       </c>
       <c r="K45" t="n">
-        <v>2.56050049999999985</v>
-      </c>
-      <c r="L45" t="n">
         <v>431.800000000000011</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:12">
       <c r="A46" t="n">
         <v>3357</v>
       </c>
@@ -2252,31 +2115,28 @@
         <v>3347.0617000000002</v>
       </c>
       <c r="E46" t="n">
-        <v>20430720</v>
+        <v>3652.5</v>
       </c>
       <c r="F46" t="n">
-        <v>3652.5</v>
+        <v>9.9170411000000005</v>
       </c>
       <c r="G46" t="n">
-        <v>9.9170411000000005</v>
+        <v>57.5487719999999996</v>
       </c>
       <c r="H46" t="n">
-        <v>57.5487719999999996</v>
+        <v>986.36099999999999</v>
       </c>
       <c r="I46" t="n">
-        <v>986.361000000000104</v>
+        <v>1069.97890000000007</v>
       </c>
       <c r="J46" t="n">
-        <v>1069.97890000000007</v>
+        <v>2.34148149999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>2.34148149999999999</v>
-      </c>
-      <c r="L46" t="n">
         <v>540.700000000000045</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:12">
       <c r="A47" t="n">
         <v>3357</v>
       </c>
@@ -2290,31 +2150,28 @@
         <v>4540.98959999999988</v>
       </c>
       <c r="E47" t="n">
-        <v>20440803</v>
+        <v>4017.75</v>
       </c>
       <c r="F47" t="n">
-        <v>4017.75</v>
+        <v>7.13305319999999998</v>
       </c>
       <c r="G47" t="n">
-        <v>7.13305319999999998</v>
+        <v>53.0412859999999995</v>
       </c>
       <c r="H47" t="n">
-        <v>53.0412859999999995</v>
+        <v>2237.88680000000022</v>
       </c>
       <c r="I47" t="n">
-        <v>2237.88680000000022</v>
+        <v>1094.47550000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>1094.47550000000001</v>
+        <v>1.26896640000000005</v>
       </c>
       <c r="K47" t="n">
-        <v>1.26896640000000005</v>
-      </c>
-      <c r="L47" t="n">
         <v>458.600000000000023</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:12">
       <c r="A48" t="n">
         <v>3357</v>
       </c>
@@ -2328,31 +2185,28 @@
         <v>4185.19790000000012</v>
       </c>
       <c r="E48" t="n">
-        <v>20410620</v>
+        <v>2922</v>
       </c>
       <c r="F48" t="n">
-        <v>2922</v>
+        <v>13.5649069999999998</v>
       </c>
       <c r="G48" t="n">
-        <v>13.5649069999999998</v>
+        <v>50.1675990000000027</v>
       </c>
       <c r="H48" t="n">
-        <v>50.1675990000000027</v>
+        <v>810.34820000000002</v>
       </c>
       <c r="I48" t="n">
-        <v>810.34820000000002</v>
+        <v>2177.09780000000001</v>
       </c>
       <c r="J48" t="n">
-        <v>2177.09780000000001</v>
+        <v>4.15832129999999989</v>
       </c>
       <c r="K48" t="n">
-        <v>4.15832129999999989</v>
-      </c>
-      <c r="L48" t="n">
         <v>447.800000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:12">
       <c r="A49" t="n">
         <v>3357</v>
       </c>
@@ -2366,31 +2220,28 @@
         <v>4379.10559999999987</v>
       </c>
       <c r="E49" t="n">
-        <v>20420601</v>
+        <v>3287.25</v>
       </c>
       <c r="F49" t="n">
-        <v>3287.25</v>
+        <v>10.9100459999999995</v>
       </c>
       <c r="G49" t="n">
-        <v>10.9100459999999995</v>
+        <v>50.728864999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>50.728864999999999</v>
+        <v>1317.37950000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>1317.37950000000001</v>
+        <v>1847.26569999999992</v>
       </c>
       <c r="J49" t="n">
-        <v>1847.26569999999992</v>
+        <v>2.79321669999999989</v>
       </c>
       <c r="K49" t="n">
-        <v>2.79321669999999989</v>
-      </c>
-      <c r="L49" t="n">
         <v>464.5</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:12">
       <c r="A50" t="n">
         <v>3357</v>
       </c>
@@ -2404,31 +2255,28 @@
         <v>4509.14689999999973</v>
       </c>
       <c r="E50" t="n">
-        <v>20430807</v>
+        <v>3652.5</v>
       </c>
       <c r="F50" t="n">
-        <v>3652.5</v>
+        <v>8.53986090000000075</v>
       </c>
       <c r="G50" t="n">
-        <v>8.53986090000000075</v>
+        <v>51.6761059999999972</v>
       </c>
       <c r="H50" t="n">
-        <v>51.6761059999999972</v>
+        <v>1894.69000000000005</v>
       </c>
       <c r="I50" t="n">
-        <v>1894.69000000000005</v>
+        <v>1410.67640000000006</v>
       </c>
       <c r="J50" t="n">
-        <v>1410.67640000000006</v>
+        <v>1.7736301000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>1.7736301000000001</v>
-      </c>
-      <c r="L50" t="n">
         <v>453.800000000000011</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:12">
       <c r="A51" t="n">
         <v>3357</v>
       </c>
@@ -2442,31 +2290,28 @@
         <v>4545.86009999999987</v>
       </c>
       <c r="E51" t="n">
-        <v>20440803</v>
+        <v>4017.75</v>
       </c>
       <c r="F51" t="n">
-        <v>4017.75</v>
+        <v>7.13360319999999959</v>
       </c>
       <c r="G51" t="n">
-        <v>7.13360319999999959</v>
+        <v>53.0394590000000008</v>
       </c>
       <c r="H51" t="n">
-        <v>53.0394590000000008</v>
+        <v>2236.6567</v>
       </c>
       <c r="I51" t="n">
-        <v>2236.6567</v>
+        <v>1094.0637999999999</v>
       </c>
       <c r="J51" t="n">
-        <v>1094.0637999999999</v>
+        <v>1.2691481</v>
       </c>
       <c r="K51" t="n">
-        <v>1.2691481</v>
-      </c>
-      <c r="L51" t="n">
         <v>465.100000000000023</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:12">
       <c r="A52" t="n">
         <v>3357</v>
       </c>
@@ -2480,31 +2325,28 @@
         <v>4417.1889000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>20420816</v>
+        <v>3287.25</v>
       </c>
       <c r="F52" t="n">
-        <v>3287.25</v>
+        <v>10.4051770000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>10.4051770000000001</v>
+        <v>50.765937000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>50.765937000000001</v>
+        <v>1450.80089999999996</v>
       </c>
       <c r="I52" t="n">
-        <v>1450.80089999999996</v>
+        <v>1787.69890000000009</v>
       </c>
       <c r="J52" t="n">
-        <v>1787.69890000000009</v>
+        <v>2.55927280000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>2.55927280000000001</v>
-      </c>
-      <c r="L52" t="n">
         <v>428.699999999999989</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:12">
       <c r="A53" t="n">
         <v>3357</v>
       </c>
@@ -2518,31 +2360,28 @@
         <v>4509.09299999999985</v>
       </c>
       <c r="E53" t="n">
-        <v>20430807</v>
+        <v>3652.5</v>
       </c>
       <c r="F53" t="n">
-        <v>3652.5</v>
+        <v>8.54781909999999989</v>
       </c>
       <c r="G53" t="n">
-        <v>8.54781909999999989</v>
+        <v>51.6933050000000023</v>
       </c>
       <c r="H53" t="n">
-        <v>51.6933050000000023</v>
+        <v>1890.90959999999995</v>
       </c>
       <c r="I53" t="n">
-        <v>1890.90959999999995</v>
+        <v>1411.04780000000005</v>
       </c>
       <c r="J53" t="n">
-        <v>1411.04780000000005</v>
+        <v>1.77670679999999992</v>
       </c>
       <c r="K53" t="n">
-        <v>1.77670679999999992</v>
-      </c>
-      <c r="L53" t="n">
         <v>457.199999999999989</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:12">
       <c r="A54" t="n">
         <v>3347</v>
       </c>
@@ -2556,31 +2395,28 @@
         <v>3512.91300000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>20450910</v>
+        <v>4017.75</v>
       </c>
       <c r="F54" t="n">
-        <v>4017.75</v>
+        <v>7.99892269999999872</v>
       </c>
       <c r="G54" t="n">
-        <v>7.99892269999999872</v>
+        <v>56.3337119999999985</v>
       </c>
       <c r="H54" t="n">
-        <v>56.3337119999999985</v>
+        <v>1450.45579999999995</v>
       </c>
       <c r="I54" t="n">
-        <v>1450.45579999999995</v>
+        <v>923.508429999999976</v>
       </c>
       <c r="J54" t="n">
-        <v>923.508429999999976</v>
+        <v>1.5702613999999997</v>
       </c>
       <c r="K54" t="n">
-        <v>1.57026139999999987</v>
-      </c>
-      <c r="L54" t="n">
         <v>388.899999999999977</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:12">
       <c r="A55" t="n">
         <v>3347</v>
       </c>
@@ -2594,31 +2430,28 @@
         <v>3498.23379999999997</v>
       </c>
       <c r="E55" t="n">
-        <v>20440911</v>
+        <v>3652.5</v>
       </c>
       <c r="F55" t="n">
-        <v>3652.5</v>
+        <v>9.55987529999999985</v>
       </c>
       <c r="G55" t="n">
-        <v>9.55987530000000163</v>
+        <v>54.2073779999999985</v>
       </c>
       <c r="H55" t="n">
-        <v>54.2073779999999985</v>
+        <v>1177.60200000000009</v>
       </c>
       <c r="I55" t="n">
-        <v>1177.60200000000009</v>
+        <v>1161.6391000000001</v>
       </c>
       <c r="J55" t="n">
-        <v>1161.6391000000001</v>
+        <v>2.18749659999999979</v>
       </c>
       <c r="K55" t="n">
-        <v>2.18749659999999979</v>
-      </c>
-      <c r="L55" t="n">
         <v>409</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:12">
       <c r="A56" t="n">
         <v>3347</v>
       </c>
@@ -2632,31 +2465,28 @@
         <v>4290.11539999999968</v>
       </c>
       <c r="E56" t="n">
-        <v>20460727</v>
+        <v>4017.75</v>
       </c>
       <c r="F56" t="n">
-        <v>4017.75</v>
+        <v>7.06426170000000031</v>
       </c>
       <c r="G56" t="n">
-        <v>7.06426170000000031</v>
+        <v>59.9055070000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>59.9055070000000001</v>
+        <v>1950.53189999999995</v>
       </c>
       <c r="I56" t="n">
-        <v>1950.53189999999995</v>
+        <v>933.392540000000054</v>
       </c>
       <c r="J56" t="n">
-        <v>933.392540000000054</v>
+        <v>1.24633909999999992</v>
       </c>
       <c r="K56" t="n">
-        <v>1.24633909999999992</v>
-      </c>
-      <c r="L56" t="n">
         <v>656.200000000000045</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:12">
       <c r="A57" t="n">
         <v>3347</v>
       </c>
@@ -2670,31 +2500,28 @@
         <v>4003.74560000000019</v>
       </c>
       <c r="E57" t="n">
-        <v>20450421</v>
+        <v>4017.75</v>
       </c>
       <c r="F57" t="n">
-        <v>4017.75</v>
+        <v>8.54553800000000052</v>
       </c>
       <c r="G57" t="n">
-        <v>8.54553800000000052</v>
+        <v>54.8653130000000004</v>
       </c>
       <c r="H57" t="n">
-        <v>54.8653130000000004</v>
+        <v>1201.32469999999989</v>
       </c>
       <c r="I57" t="n">
-        <v>1201.32469999999989</v>
+        <v>895.880419999999845</v>
       </c>
       <c r="J57" t="n">
-        <v>895.880419999999845</v>
+        <v>1.77582470000000008</v>
       </c>
       <c r="K57" t="n">
-        <v>1.77582470000000008</v>
-      </c>
-      <c r="L57" t="n">
         <v>1156.59999999999991</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:12">
       <c r="A58" t="n">
         <v>3347</v>
       </c>
@@ -2708,31 +2535,28 @@
         <v>3512.93949999999995</v>
       </c>
       <c r="E58" t="n">
-        <v>20450910</v>
+        <v>4017.75</v>
       </c>
       <c r="F58" t="n">
-        <v>4017.75</v>
+        <v>7.99881659999999872</v>
       </c>
       <c r="G58" t="n">
-        <v>7.99881659999999872</v>
+        <v>56.3342809999999972</v>
       </c>
       <c r="H58" t="n">
-        <v>56.3342809999999972</v>
+        <v>1451.37470000000008</v>
       </c>
       <c r="I58" t="n">
-        <v>1451.37470000000008</v>
+        <v>924.064610000000016</v>
       </c>
       <c r="J58" t="n">
-        <v>924.064610000000016</v>
+        <v>1.57022259999999996</v>
       </c>
       <c r="K58" t="n">
-        <v>1.57022259999999996</v>
-      </c>
-      <c r="L58" t="n">
         <v>387.5</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:12">
       <c r="A59" t="n">
         <v>3347</v>
       </c>
@@ -2746,31 +2570,28 @@
         <v>3499.99449999999979</v>
       </c>
       <c r="E59" t="n">
-        <v>20440911</v>
+        <v>3652.5</v>
       </c>
       <c r="F59" t="n">
-        <v>3652.5</v>
+        <v>9.55912280000000081</v>
       </c>
       <c r="G59" t="n">
-        <v>9.55912280000000081</v>
+        <v>54.2047129999999981</v>
       </c>
       <c r="H59" t="n">
-        <v>54.2047129999999981</v>
+        <v>1178.11699999999996</v>
       </c>
       <c r="I59" t="n">
-        <v>1178.11699999999996</v>
+        <v>1161.91249999999991</v>
       </c>
       <c r="J59" t="n">
-        <v>1161.91249999999991</v>
+        <v>2.18717700000000015</v>
       </c>
       <c r="K59" t="n">
-        <v>2.18717700000000015</v>
-      </c>
-      <c r="L59" t="n">
         <v>410</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:12">
       <c r="A60" t="n">
         <v>3347</v>
       </c>
@@ -2784,31 +2605,28 @@
         <v>2939.65689999999995</v>
       </c>
       <c r="E60" t="n">
-        <v>20460914</v>
+        <v>4017.75</v>
       </c>
       <c r="F60" t="n">
-        <v>4017.75</v>
+        <v>9.40162970000000087</v>
       </c>
       <c r="G60" t="n">
-        <v>9.40162970000000087</v>
+        <v>47.1546129999999977</v>
       </c>
       <c r="H60" t="n">
-        <v>47.1546129999999977</v>
+        <v>911.895400000000109</v>
       </c>
       <c r="I60" t="n">
-        <v>911.895399999999995</v>
+        <v>861.993950000000041</v>
       </c>
       <c r="J60" t="n">
-        <v>861.993950000000041</v>
+        <v>2.12075140000000006</v>
       </c>
       <c r="K60" t="n">
-        <v>2.12075140000000006</v>
-      </c>
-      <c r="L60" t="n">
         <v>416</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:12">
       <c r="A61" t="n">
         <v>3347</v>
       </c>
@@ -2822,31 +2640,28 @@
         <v>4817.60069999999996</v>
       </c>
       <c r="E61" t="n">
-        <v>20451012</v>
+        <v>3652.5</v>
       </c>
       <c r="F61" t="n">
-        <v>3652.5</v>
+        <v>11.3184550000000002</v>
       </c>
       <c r="G61" t="n">
-        <v>11.3184550000000002</v>
+        <v>45.3206819999999979</v>
       </c>
       <c r="H61" t="n">
-        <v>45.3206819999999979</v>
+        <v>1177.08549999999991</v>
       </c>
       <c r="I61" t="n">
-        <v>1177.08549999999991</v>
+        <v>1829.44579999999996</v>
       </c>
       <c r="J61" t="n">
-        <v>1829.44579999999996</v>
+        <v>2.98874629999999986</v>
       </c>
       <c r="K61" t="n">
-        <v>2.98874629999999986</v>
-      </c>
-      <c r="L61" t="n">
         <v>1061.09999999999991</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:12">
       <c r="A62" t="n">
         <v>3347</v>
       </c>
@@ -2860,31 +2675,28 @@
         <v>4522.03889999999956</v>
       </c>
       <c r="E62" t="n">
-        <v>20460916</v>
+        <v>4017.75</v>
       </c>
       <c r="F62" t="n">
-        <v>4017.75</v>
+        <v>6.84922319999999996</v>
       </c>
       <c r="G62" t="n">
-        <v>6.84922319999999996</v>
+        <v>58.806874999999998</v>
       </c>
       <c r="H62" t="n">
-        <v>58.806874999999998</v>
+        <v>2214.98439999999982</v>
       </c>
       <c r="I62" t="n">
-        <v>2214.98439999999982</v>
+        <v>989.335220000000049</v>
       </c>
       <c r="J62" t="n">
-        <v>989.335220000000049</v>
+        <v>1.17687340000000007</v>
       </c>
       <c r="K62" t="n">
-        <v>1.17687340000000007</v>
-      </c>
-      <c r="L62" t="n">
         <v>567.700000000000045</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:12">
       <c r="A63" t="n">
         <v>3347</v>
       </c>
@@ -2898,31 +2710,28 @@
         <v>3445.5623999999998</v>
       </c>
       <c r="E63" t="n">
-        <v>20470918</v>
+        <v>4017.75</v>
       </c>
       <c r="F63" t="n">
-        <v>4017.75</v>
+        <v>7.89380729999999886</v>
       </c>
       <c r="G63" t="n">
-        <v>7.89380729999999797</v>
+        <v>49.5746490000000009</v>
       </c>
       <c r="H63" t="n">
-        <v>49.5746490000000009</v>
+        <v>1374.38640000000009</v>
       </c>
       <c r="I63" t="n">
-        <v>1374.38640000000009</v>
+        <v>848.285399999999981</v>
       </c>
       <c r="J63" t="n">
-        <v>848.285399999999981</v>
+        <v>1.5320767</v>
       </c>
       <c r="K63" t="n">
-        <v>1.5320767</v>
-      </c>
-      <c r="L63" t="n">
         <v>472.899999999999977</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:12">
       <c r="A64" t="n">
         <v>3347</v>
       </c>
@@ -2936,31 +2745,28 @@
         <v>3425.79080000000022</v>
       </c>
       <c r="E64" t="n">
-        <v>20460919</v>
+        <v>3652.5</v>
       </c>
       <c r="F64" t="n">
-        <v>3652.5</v>
+        <v>9.37345440000000174</v>
       </c>
       <c r="G64" t="n">
-        <v>9.37345439999999996</v>
+        <v>47.1392919999999975</v>
       </c>
       <c r="H64" t="n">
-        <v>47.1392919999999975</v>
+        <v>1132.56610000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1132.56610000000001</v>
+        <v>1062.45569999999998</v>
       </c>
       <c r="J64" t="n">
-        <v>1062.45569999999998</v>
+        <v>2.10896380000000017</v>
       </c>
       <c r="K64" t="n">
-        <v>2.10896380000000017</v>
-      </c>
-      <c r="L64" t="n">
         <v>480.800000000000011</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:12">
       <c r="A65" t="n">
         <v>3347</v>
       </c>
@@ -2974,31 +2780,28 @@
         <v>4689.63050000000021</v>
       </c>
       <c r="E65" t="n">
-        <v>20450118</v>
+        <v>4017.75</v>
       </c>
       <c r="F65" t="n">
-        <v>4017.75</v>
+        <v>8.9490502999999979</v>
       </c>
       <c r="G65" t="n">
-        <v>8.9490502999999979</v>
+        <v>54.4364589999999993</v>
       </c>
       <c r="H65" t="n">
-        <v>54.4364589999999993</v>
+        <v>1472.1074000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>1472.1074000000001</v>
+        <v>1229.39490000000001</v>
       </c>
       <c r="J65" t="n">
-        <v>1229.39490000000001</v>
+        <v>1.9349672</v>
       </c>
       <c r="K65" t="n">
-        <v>1.9349672</v>
-      </c>
-      <c r="L65" t="n">
         <v>1238.09999999999991</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:12">
       <c r="A66" t="n">
         <v>3347</v>
       </c>
@@ -3012,31 +2815,28 @@
         <v>5062.42090000000007</v>
       </c>
       <c r="E66" t="n">
-        <v>20430915</v>
+        <v>4017.75</v>
       </c>
       <c r="F66" t="n">
-        <v>4017.75</v>
+        <v>11.8087319999999991</v>
       </c>
       <c r="G66" t="n">
-        <v>11.8087319999999991</v>
+        <v>53.8722179999999966</v>
       </c>
       <c r="H66" t="n">
-        <v>53.8722179999999966</v>
+        <v>1093.17830000000004</v>
       </c>
       <c r="I66" t="n">
-        <v>1093.17830000000004</v>
+        <v>1919.24260000000004</v>
       </c>
       <c r="J66" t="n">
-        <v>1919.24260000000004</v>
+        <v>3.23068089999999986</v>
       </c>
       <c r="K66" t="n">
-        <v>3.23068089999999986</v>
-      </c>
-      <c r="L66" t="n">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:12">
       <c r="A67" t="n">
         <v>3347</v>
       </c>
@@ -3050,31 +2850,28 @@
         <v>5045.60189999999966</v>
       </c>
       <c r="E67" t="n">
-        <v>20440925</v>
+        <v>4017.75</v>
       </c>
       <c r="F67" t="n">
-        <v>4017.75</v>
+        <v>9.48804130000000079</v>
       </c>
       <c r="G67" t="n">
-        <v>9.48804130000000079</v>
+        <v>54.0407719999999969</v>
       </c>
       <c r="H67" t="n">
-        <v>54.0407719999999969</v>
+        <v>1746.40969999999993</v>
       </c>
       <c r="I67" t="n">
-        <v>1746.40969999999993</v>
+        <v>1689.79119999999966</v>
       </c>
       <c r="J67" t="n">
-        <v>1689.79119999999989</v>
+        <v>2.15708469999999997</v>
       </c>
       <c r="K67" t="n">
-        <v>2.15708469999999997</v>
-      </c>
-      <c r="L67" t="n">
-        <v>859.399999999999977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18">
+        <v>859.399999999999864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="n">
         <v>3347</v>
       </c>
@@ -3088,31 +2885,28 @@
         <v>5045.88649999999961</v>
       </c>
       <c r="E68" t="n">
-        <v>20440927</v>
+        <v>4017.75</v>
       </c>
       <c r="F68" t="n">
-        <v>4017.75</v>
+        <v>9.48055019999999971</v>
       </c>
       <c r="G68" t="n">
-        <v>9.48055019999999971</v>
+        <v>54.0274909999999977</v>
       </c>
       <c r="H68" t="n">
-        <v>54.0274909999999977</v>
+        <v>1744.66959999999995</v>
       </c>
       <c r="I68" t="n">
-        <v>1744.66959999999995</v>
+        <v>1684.70499999999993</v>
       </c>
       <c r="J68" t="n">
-        <v>1684.70499999999993</v>
+        <v>2.15392420000000007</v>
       </c>
       <c r="K68" t="n">
-        <v>2.15392420000000007</v>
-      </c>
-      <c r="L68" t="n">
         <v>866.5</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:12">
       <c r="A69" t="n">
         <v>3347</v>
       </c>
@@ -3126,31 +2920,28 @@
         <v>2913.39609999999993</v>
       </c>
       <c r="E69" t="n">
-        <v>20430915</v>
+        <v>3652.5</v>
       </c>
       <c r="F69" t="n">
-        <v>3652.5</v>
+        <v>11.7361520000000006</v>
       </c>
       <c r="G69" t="n">
-        <v>11.7361520000000006</v>
+        <v>52.7373430000000027</v>
       </c>
       <c r="H69" t="n">
-        <v>52.7373430000000027</v>
+        <v>658.89530000000002</v>
       </c>
       <c r="I69" t="n">
-        <v>658.89530000000002</v>
+        <v>1136.22779999999989</v>
       </c>
       <c r="J69" t="n">
-        <v>1136.22779999999989</v>
+        <v>3.19437769999999999</v>
       </c>
       <c r="K69" t="n">
-        <v>3.19437769999999999</v>
-      </c>
-      <c r="L69" t="n">
         <v>368.300000000000011</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:12">
       <c r="A70" t="n">
         <v>3347</v>
       </c>
@@ -3164,31 +2955,28 @@
         <v>3518.25759999999991</v>
       </c>
       <c r="E70" t="n">
-        <v>20450910</v>
+        <v>4017.75</v>
       </c>
       <c r="F70" t="n">
-        <v>4017.75</v>
+        <v>8.00033969999999783</v>
       </c>
       <c r="G70" t="n">
-        <v>8.00033969999999783</v>
+        <v>56.330725000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>56.330725000000001</v>
+        <v>1450.34079999999994</v>
       </c>
       <c r="I70" t="n">
-        <v>1450.34079999999994</v>
+        <v>923.820860000000039</v>
       </c>
       <c r="J70" t="n">
-        <v>923.820860000000039</v>
+        <v>1.57077910000000003</v>
       </c>
       <c r="K70" t="n">
-        <v>1.57077910000000003</v>
-      </c>
-      <c r="L70" t="n">
         <v>394.100000000000023</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:12">
       <c r="A71" t="n">
         <v>3347</v>
       </c>
@@ -3202,31 +2990,28 @@
         <v>4713.05509999999958</v>
       </c>
       <c r="E71" t="n">
-        <v>20430824</v>
+        <v>3652.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3652.5</v>
+        <v>11.9530259999999995</v>
       </c>
       <c r="G71" t="n">
-        <v>11.9530259999999995</v>
+        <v>53.6465400000000017</v>
       </c>
       <c r="H71" t="n">
-        <v>53.6465400000000017</v>
+        <v>1044.29170000000022</v>
       </c>
       <c r="I71" t="n">
-        <v>1044.29169999999999</v>
+        <v>1899.78230000000008</v>
       </c>
       <c r="J71" t="n">
-        <v>1899.78230000000008</v>
+        <v>3.3033507000000002</v>
       </c>
       <c r="K71" t="n">
-        <v>3.3033507000000002</v>
-      </c>
-      <c r="L71" t="n">
         <v>1019</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:12">
       <c r="A72" t="n">
         <v>3347</v>
       </c>
@@ -3240,31 +3025,28 @@
         <v>4869.13270000000011</v>
       </c>
       <c r="E72" t="n">
-        <v>20440807</v>
+        <v>4017.75</v>
       </c>
       <c r="F72" t="n">
-        <v>4017.75</v>
+        <v>9.7953632000000006</v>
       </c>
       <c r="G72" t="n">
-        <v>9.7953632000000006</v>
+        <v>55.1302680000000009</v>
       </c>
       <c r="H72" t="n">
-        <v>55.1302680000000009</v>
+        <v>1534.61370000000011</v>
       </c>
       <c r="I72" t="n">
-        <v>1534.61370000000011</v>
+        <v>1611.97170000000006</v>
       </c>
       <c r="J72" t="n">
-        <v>1611.97170000000006</v>
+        <v>2.28850670000000012</v>
       </c>
       <c r="K72" t="n">
-        <v>2.28850670000000012</v>
-      </c>
-      <c r="L72" t="n">
         <v>972.5</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:12">
       <c r="A73" t="n">
         <v>3347</v>
       </c>
@@ -3278,31 +3060,28 @@
         <v>2978.16699999999992</v>
       </c>
       <c r="E73" t="n">
-        <v>20440904</v>
+        <v>4017.75</v>
       </c>
       <c r="F73" t="n">
-        <v>4017.75</v>
+        <v>9.59609050000000074</v>
       </c>
       <c r="G73" t="n">
-        <v>9.59609050000000074</v>
+        <v>54.15625</v>
       </c>
       <c r="H73" t="n">
-        <v>54.15625</v>
+        <v>939.242800000000102</v>
       </c>
       <c r="I73" t="n">
-        <v>939.242800000000216</v>
+        <v>935.549849999999992</v>
       </c>
       <c r="J73" t="n">
-        <v>935.549850000000106</v>
+        <v>2.20290000000000008</v>
       </c>
       <c r="K73" t="n">
-        <v>2.20290000000000008</v>
-      </c>
-      <c r="L73" t="n">
         <v>353.399999999999977</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:12">
       <c r="A74" t="n">
         <v>3347</v>
       </c>
@@ -3316,31 +3095,28 @@
         <v>2920.4097999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>20430915</v>
+        <v>3652.5</v>
       </c>
       <c r="F74" t="n">
-        <v>3652.5</v>
+        <v>11.7357879999999994</v>
       </c>
       <c r="G74" t="n">
-        <v>11.7357879999999994</v>
+        <v>52.7491419999999991</v>
       </c>
       <c r="H74" t="n">
-        <v>52.7491419999999991</v>
+        <v>659.968600000000038</v>
       </c>
       <c r="I74" t="n">
-        <v>659.968600000000038</v>
+        <v>1137.97620000000006</v>
       </c>
       <c r="J74" t="n">
-        <v>1137.97620000000006</v>
+        <v>3.19419619999999993</v>
       </c>
       <c r="K74" t="n">
-        <v>3.19419619999999993</v>
-      </c>
-      <c r="L74" t="n">
         <v>372.5</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:12">
       <c r="A75" t="n">
         <v>3367</v>
       </c>
@@ -3354,31 +3130,28 @@
         <v>3460.67140000000018</v>
       </c>
       <c r="E75" t="n">
-        <v>20360710</v>
+        <v>4017.75</v>
       </c>
       <c r="F75" t="n">
-        <v>4017.75</v>
+        <v>9.08075389999999949</v>
       </c>
       <c r="G75" t="n">
-        <v>9.08075389999999949</v>
+        <v>73.6111149999999981</v>
       </c>
       <c r="H75" t="n">
-        <v>73.6111149999999981</v>
+        <v>1230.53600000000006</v>
       </c>
       <c r="I75" t="n">
-        <v>1230.53600000000006</v>
+        <v>1065.7177999999999</v>
       </c>
       <c r="J75" t="n">
-        <v>1065.7177999999999</v>
+        <v>1.98824420000000011</v>
       </c>
       <c r="K75" t="n">
-        <v>1.98824420000000011</v>
-      </c>
-      <c r="L75" t="n">
         <v>414.5</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:12">
       <c r="A76" t="n">
         <v>3367</v>
       </c>
@@ -3392,31 +3165,28 @@
         <v>3381.90189999999984</v>
       </c>
       <c r="E76" t="n">
-        <v>20350523</v>
+        <v>3652.5</v>
       </c>
       <c r="F76" t="n">
-        <v>3652.5</v>
+        <v>11.4747979999999998</v>
       </c>
       <c r="G76" t="n">
-        <v>11.4747979999999998</v>
+        <v>72.6228660000000019</v>
       </c>
       <c r="H76" t="n">
-        <v>72.6228660000000019</v>
+        <v>854.341099999999983</v>
       </c>
       <c r="I76" t="n">
-        <v>854.341099999999983</v>
+        <v>1380.70589999999993</v>
       </c>
       <c r="J76" t="n">
-        <v>1380.70589999999993</v>
+        <v>3.06505159999999988</v>
       </c>
       <c r="K76" t="n">
-        <v>3.06505159999999988</v>
-      </c>
-      <c r="L76" t="n">
         <v>396.899999999999977</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:12">
       <c r="A77" t="n">
         <v>3367</v>
       </c>
@@ -3430,31 +3200,28 @@
         <v>3390.13310000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>20360517</v>
+        <v>4017.75</v>
       </c>
       <c r="F77" t="n">
-        <v>4017.75</v>
+        <v>9.37184180000000033</v>
       </c>
       <c r="G77" t="n">
-        <v>9.37184180000000033</v>
+        <v>73.5270340000000004</v>
       </c>
       <c r="H77" t="n">
-        <v>73.5270340000000004</v>
+        <v>1168.44699999999989</v>
       </c>
       <c r="I77" t="n">
-        <v>1168.44699999999989</v>
+        <v>1095.63670000000002</v>
       </c>
       <c r="J77" t="n">
-        <v>1095.63670000000002</v>
+        <v>2.10829000000000022</v>
       </c>
       <c r="K77" t="n">
-        <v>2.10829000000000022</v>
-      </c>
-      <c r="L77" t="n">
         <v>376.100000000000023</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:12">
       <c r="A78" t="n">
         <v>3367</v>
       </c>
@@ -3468,31 +3235,28 @@
         <v>3371.53710000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>20350523</v>
+        <v>3652.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3652.5</v>
+        <v>11.4704759999999997</v>
       </c>
       <c r="G78" t="n">
-        <v>11.4704759999999997</v>
+        <v>72.6244319999999988</v>
       </c>
       <c r="H78" t="n">
-        <v>72.6244319999999988</v>
+        <v>853.279999999999859</v>
       </c>
       <c r="I78" t="n">
-        <v>853.279999999999973</v>
+        <v>1377.50680000000011</v>
       </c>
       <c r="J78" t="n">
-        <v>1377.50680000000011</v>
+        <v>3.0629316000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>3.0629316000000002</v>
-      </c>
-      <c r="L78" t="n">
         <v>390.800000000000011</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:12">
       <c r="A79" t="n">
         <v>3367</v>
       </c>
@@ -3506,31 +3270,28 @@
         <v>3458.53490000000011</v>
       </c>
       <c r="E79" t="n">
-        <v>20360710</v>
+        <v>4017.75</v>
       </c>
       <c r="F79" t="n">
-        <v>4017.75</v>
+        <v>9.08151570000000063</v>
       </c>
       <c r="G79" t="n">
-        <v>9.08151570000000063</v>
+        <v>73.6110160000000064</v>
       </c>
       <c r="H79" t="n">
-        <v>73.6110160000000064</v>
+        <v>1230.12380000000007</v>
       </c>
       <c r="I79" t="n">
-        <v>1230.12380000000007</v>
+        <v>1065.58420000000001</v>
       </c>
       <c r="J79" t="n">
-        <v>1065.58420000000001</v>
+        <v>1.9885543000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>1.9885543000000002</v>
-      </c>
-      <c r="L79" t="n">
         <v>412.800000000000011</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:12">
       <c r="A80" t="n">
         <v>3367</v>
       </c>
@@ -3544,31 +3305,28 @@
         <v>3415.77790000000005</v>
       </c>
       <c r="E80" t="n">
-        <v>20350717</v>
+        <v>3652.5</v>
       </c>
       <c r="F80" t="n">
-        <v>3652.5</v>
+        <v>11.0741099999999992</v>
       </c>
       <c r="G80" t="n">
-        <v>11.0741099999999992</v>
+        <v>72.7034539999999936</v>
       </c>
       <c r="H80" t="n">
-        <v>72.7034539999999794</v>
+        <v>917.133500000000026</v>
       </c>
       <c r="I80" t="n">
-        <v>917.133500000000026</v>
+        <v>1340.52919999999995</v>
       </c>
       <c r="J80" t="n">
-        <v>1340.52919999999995</v>
+        <v>2.87109779999999972</v>
       </c>
       <c r="K80" t="n">
-        <v>2.87109779999999972</v>
-      </c>
-      <c r="L80" t="n">
         <v>408.100000000000023</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:12">
       <c r="A81" t="n">
         <v>3367</v>
       </c>
@@ -3582,31 +3340,28 @@
         <v>2558.52379999999994</v>
       </c>
       <c r="E81" t="n">
-        <v>20360813</v>
+        <v>4017.75</v>
       </c>
       <c r="F81" t="n">
-        <v>4017.75</v>
+        <v>12.1485789999999998</v>
       </c>
       <c r="G81" t="n">
-        <v>12.1485789999999998</v>
+        <v>78.2189920000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>78.2189920000000001</v>
+        <v>507.036000000000001</v>
       </c>
       <c r="I81" t="n">
-        <v>507.036000000000001</v>
+        <v>967.747070000000008</v>
       </c>
       <c r="J81" t="n">
-        <v>967.747070000000008</v>
+        <v>3.40288170000000001</v>
       </c>
       <c r="K81" t="n">
-        <v>3.40288170000000001</v>
-      </c>
-      <c r="L81" t="n">
         <v>333.699999999999989</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:12">
       <c r="A82" t="n">
         <v>3367</v>
       </c>
@@ -3620,31 +3375,28 @@
         <v>3423.30650000000014</v>
       </c>
       <c r="E82" t="n">
-        <v>20350717</v>
+        <v>3652.5</v>
       </c>
       <c r="F82" t="n">
-        <v>3652.5</v>
+        <v>11.0750410000000006</v>
       </c>
       <c r="G82" t="n">
-        <v>11.0750410000000006</v>
+        <v>72.703103999999982</v>
       </c>
       <c r="H82" t="n">
-        <v>72.703103999999982</v>
+        <v>917.804700000000025</v>
       </c>
       <c r="I82" t="n">
-        <v>917.804700000000025</v>
+        <v>1341.8252</v>
       </c>
       <c r="J82" t="n">
-        <v>1341.8252</v>
+        <v>2.87154220000000002</v>
       </c>
       <c r="K82" t="n">
-        <v>2.87154220000000002</v>
-      </c>
-      <c r="L82" t="n">
         <v>413.699999999999989</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:12">
       <c r="A83" t="n">
         <v>3367</v>
       </c>
@@ -3658,31 +3410,28 @@
         <v>5108.43099999999959</v>
       </c>
       <c r="E83" t="n">
-        <v>20370709</v>
+        <v>4017.75</v>
       </c>
       <c r="F83" t="n">
-        <v>4017.75</v>
+        <v>8.61177939999999786</v>
       </c>
       <c r="G83" t="n">
-        <v>8.61177939999999786</v>
+        <v>77.0935640000000006</v>
       </c>
       <c r="H83" t="n">
-        <v>77.0935640000000006</v>
+        <v>1825.52330000000006</v>
       </c>
       <c r="I83" t="n">
-        <v>1825.52330000000006</v>
+        <v>1387.17309999999998</v>
       </c>
       <c r="J83" t="n">
-        <v>1387.17309999999998</v>
+        <v>1.80152350000000006</v>
       </c>
       <c r="K83" t="n">
-        <v>1.80152350000000006</v>
-      </c>
-      <c r="L83" t="n">
         <v>1145.70000000000005</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:12">
       <c r="A84" t="n">
         <v>3367</v>
       </c>
@@ -3696,31 +3445,28 @@
         <v>4622.15020000000004</v>
       </c>
       <c r="E84" t="n">
-        <v>20360802</v>
+        <v>3652.5</v>
       </c>
       <c r="F84" t="n">
-        <v>3652.5</v>
+        <v>10.3283629999999995</v>
       </c>
       <c r="G84" t="n">
-        <v>10.3283629999999995</v>
+        <v>76.1152510000000007</v>
       </c>
       <c r="H84" t="n">
-        <v>76.1152510000000007</v>
+        <v>1259.44689999999991</v>
       </c>
       <c r="I84" t="n">
-        <v>1259.44689999999991</v>
+        <v>1521.35760000000005</v>
       </c>
       <c r="J84" t="n">
-        <v>1521.35760000000005</v>
+        <v>2.5244472</v>
       </c>
       <c r="K84" t="n">
-        <v>2.5244472</v>
-      </c>
-      <c r="L84" t="n">
         <v>1091.29999999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:12">
       <c r="A85" t="n">
         <v>3367</v>
       </c>
@@ -3734,31 +3480,28 @@
         <v>3445.18299999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>20370523</v>
+        <v>4017.75</v>
       </c>
       <c r="F85" t="n">
-        <v>4017.75</v>
+        <v>8.79901309999999981</v>
       </c>
       <c r="G85" t="n">
-        <v>8.79901309999999981</v>
+        <v>76.9220889999999997</v>
       </c>
       <c r="H85" t="n">
-        <v>76.9220889999999997</v>
+        <v>1261.63380000000006</v>
       </c>
       <c r="I85" t="n">
-        <v>1261.63380000000006</v>
+        <v>1010.5181</v>
       </c>
       <c r="J85" t="n">
-        <v>1010.5181</v>
+        <v>1.87507019999999986</v>
       </c>
       <c r="K85" t="n">
-        <v>1.87507019999999986</v>
-      </c>
-      <c r="L85" t="n">
         <v>423</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:12">
       <c r="A86" t="n">
         <v>3367</v>
       </c>
@@ -3772,31 +3515,28 @@
         <v>3461.28369999999995</v>
       </c>
       <c r="E86" t="n">
-        <v>20360726</v>
+        <v>3652.5</v>
       </c>
       <c r="F86" t="n">
-        <v>3652.5</v>
+        <v>10.2901869999999995</v>
       </c>
       <c r="G86" t="n">
-        <v>10.2901869999999995</v>
+        <v>75.9898780000000045</v>
       </c>
       <c r="H86" t="n">
-        <v>75.9898780000000045</v>
+        <v>1033.06079999999997</v>
       </c>
       <c r="I86" t="n">
-        <v>1033.06079999999997</v>
+        <v>1235.5938000000001</v>
       </c>
       <c r="J86" t="n">
-        <v>1235.5938000000001</v>
+        <v>2.50721529999999992</v>
       </c>
       <c r="K86" t="n">
-        <v>2.50721529999999992</v>
-      </c>
-      <c r="L86" t="n">
         <v>442.600000000000023</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:12">
       <c r="A87" t="n">
         <v>3367</v>
       </c>
@@ -3810,31 +3550,28 @@
         <v>3506.49130000000014</v>
       </c>
       <c r="E87" t="n">
-        <v>20370722</v>
+        <v>4017.75</v>
       </c>
       <c r="F87" t="n">
-        <v>4017.75</v>
+        <v>8.50316549999999793</v>
       </c>
       <c r="G87" t="n">
-        <v>8.50316549999999793</v>
+        <v>77.0316870000000051</v>
       </c>
       <c r="H87" t="n">
-        <v>77.0316870000000051</v>
+        <v>1329.40609999999992</v>
       </c>
       <c r="I87" t="n">
-        <v>1329.40609999999992</v>
+        <v>979.521010000000047</v>
       </c>
       <c r="J87" t="n">
-        <v>979.521010000000047</v>
+        <v>1.75947450000000005</v>
       </c>
       <c r="K87" t="n">
-        <v>1.75947450000000005</v>
-      </c>
-      <c r="L87" t="n">
         <v>447.600000000000023</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:12">
       <c r="A88" t="n">
         <v>3367</v>
       </c>
@@ -3848,31 +3585,28 @@
         <v>3377.64330000000018</v>
       </c>
       <c r="E88" t="n">
-        <v>20360606</v>
+        <v>3652.5</v>
       </c>
       <c r="F88" t="n">
-        <v>3652.5</v>
+        <v>10.6382890000000003</v>
       </c>
       <c r="G88" t="n">
-        <v>10.6382890000000003</v>
+        <v>75.9143789999999825</v>
       </c>
       <c r="H88" t="n">
-        <v>75.9143789999999825</v>
+        <v>955.995300000000043</v>
       </c>
       <c r="I88" t="n">
-        <v>955.995300000000043</v>
+        <v>1250.80680000000007</v>
       </c>
       <c r="J88" t="n">
-        <v>1250.80680000000007</v>
+        <v>2.66620929999999978</v>
       </c>
       <c r="K88" t="n">
-        <v>2.66620929999999978</v>
-      </c>
-      <c r="L88" t="n">
         <v>420.800000000000011</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:12">
       <c r="A89" t="n">
         <v>3367</v>
       </c>
@@ -3886,31 +3620,28 @@
         <v>3502.55270000000019</v>
       </c>
       <c r="E89" t="n">
-        <v>20370722</v>
+        <v>4017.75</v>
       </c>
       <c r="F89" t="n">
-        <v>4017.75</v>
+        <v>8.50248939999999997</v>
       </c>
       <c r="G89" t="n">
-        <v>8.50248939999999997</v>
+        <v>77.032424000000006</v>
       </c>
       <c r="H89" t="n">
-        <v>77.032424000000006</v>
+        <v>1329.52839999999992</v>
       </c>
       <c r="I89" t="n">
-        <v>1329.52839999999992</v>
+        <v>979.422530000000052</v>
       </c>
       <c r="J89" t="n">
-        <v>979.422530000000052</v>
+        <v>1.75921419999999991</v>
       </c>
       <c r="K89" t="n">
-        <v>1.75921419999999991</v>
-      </c>
-      <c r="L89" t="n">
         <v>443.600000000000023</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:12">
       <c r="A90" t="n">
         <v>3367</v>
       </c>
@@ -3924,31 +3655,28 @@
         <v>3450.28420000000006</v>
       </c>
       <c r="E90" t="n">
-        <v>20380608</v>
+        <v>4017.75</v>
       </c>
       <c r="F90" t="n">
-        <v>4017.75</v>
+        <v>8.55141749999999767</v>
       </c>
       <c r="G90" t="n">
-        <v>8.55141749999999767</v>
+        <v>79.9207080000000047</v>
       </c>
       <c r="H90" t="n">
-        <v>79.9207080000000047</v>
+        <v>1285.14879999999994</v>
       </c>
       <c r="I90" t="n">
-        <v>1285.14879999999994</v>
+        <v>959.993100000000027</v>
       </c>
       <c r="J90" t="n">
-        <v>959.993100000000027</v>
+        <v>1.77809889999999999</v>
       </c>
       <c r="K90" t="n">
-        <v>1.77809889999999999</v>
-      </c>
-      <c r="L90" t="n">
         <v>455.100000000000023</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:12">
       <c r="A91" t="n">
         <v>3367</v>
       </c>
@@ -3962,31 +3690,28 @@
         <v>3501.69160000000011</v>
       </c>
       <c r="E91" t="n">
-        <v>20380807</v>
+        <v>4017.75</v>
       </c>
       <c r="F91" t="n">
-        <v>4017.75</v>
+        <v>8.26651430000000076</v>
       </c>
       <c r="G91" t="n">
-        <v>8.26651430000000076</v>
+        <v>80.0021409999999804</v>
       </c>
       <c r="H91" t="n">
-        <v>80.0021409999999804</v>
+        <v>1362.49109999999996</v>
       </c>
       <c r="I91" t="n">
-        <v>1362.49109999999996</v>
+        <v>937.982579999999984</v>
       </c>
       <c r="J91" t="n">
-        <v>937.982579999999984</v>
+        <v>1.66943609999999998</v>
       </c>
       <c r="K91" t="n">
-        <v>1.66943609999999998</v>
-      </c>
-      <c r="L91" t="n">
         <v>451.199999999999989</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:12">
       <c r="A92" t="n">
         <v>3367</v>
       </c>
@@ -4000,31 +3725,28 @@
         <v>4774.31700000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>20380927</v>
+        <v>4017.75</v>
       </c>
       <c r="F92" t="n">
-        <v>4017.75</v>
+        <v>9.72787770000000052</v>
       </c>
       <c r="G92" t="n">
-        <v>9.72787770000000052</v>
+        <v>81.2380610000000019</v>
       </c>
       <c r="H92" t="n">
-        <v>81.2380610000000019</v>
+        <v>1431.41180000000008</v>
       </c>
       <c r="I92" t="n">
-        <v>1431.41180000000008</v>
+        <v>1476.84449999999993</v>
       </c>
       <c r="J92" t="n">
-        <v>1476.84449999999993</v>
+        <v>2.25935459999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>2.25935459999999999</v>
-      </c>
-      <c r="L92" t="n">
         <v>1116.09999999999991</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:12">
       <c r="A93" t="n">
         <v>3457</v>
       </c>
@@ -4038,31 +3760,28 @@
         <v>2546.2190999999998</v>
       </c>
       <c r="E93" t="n">
-        <v>20420203</v>
+        <v>4017.75</v>
       </c>
       <c r="F93" t="n">
-        <v>4017.75</v>
+        <v>8.67043110000000006</v>
       </c>
       <c r="G93" t="n">
-        <v>8.67043110000000006</v>
+        <v>52.6436160000000015</v>
       </c>
       <c r="H93" t="n">
-        <v>52.6436160000000015</v>
+        <v>857.966300000000047</v>
       </c>
       <c r="I93" t="n">
-        <v>857.966300000000047</v>
+        <v>662.834309999999959</v>
       </c>
       <c r="J93" t="n">
-        <v>662.834309999999959</v>
+        <v>1.82441829999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>1.82441829999999996</v>
-      </c>
-      <c r="L93" t="n">
         <v>275.399999999999977</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:12">
       <c r="A94" t="n">
         <v>3457</v>
       </c>
@@ -4076,31 +3795,28 @@
         <v>2554.50450000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>20420203</v>
+        <v>4017.75</v>
       </c>
       <c r="F94" t="n">
-        <v>4017.75</v>
+        <v>8.67127529999999602</v>
       </c>
       <c r="G94" t="n">
-        <v>8.6712752999999978</v>
+        <v>52.6398060000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>52.6398060000000001</v>
+        <v>859.481999999999857</v>
       </c>
       <c r="I94" t="n">
-        <v>859.481999999999857</v>
+        <v>664.163249999999948</v>
       </c>
       <c r="J94" t="n">
-        <v>664.163249999999948</v>
+        <v>1.82474880000000006</v>
       </c>
       <c r="K94" t="n">
-        <v>1.82474880000000006</v>
-      </c>
-      <c r="L94" t="n">
         <v>280.899999999999977</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:12">
       <c r="A95" t="n">
         <v>3457</v>
       </c>
@@ -4114,31 +3830,28 @@
         <v>2352.06100000000015</v>
       </c>
       <c r="E95" t="n">
-        <v>20410203</v>
+        <v>3652.5</v>
       </c>
       <c r="F95" t="n">
-        <v>3652.5</v>
+        <v>10.1490370000000016</v>
       </c>
       <c r="G95" t="n">
-        <v>10.1490369999999999</v>
+        <v>56.5972849999999994</v>
       </c>
       <c r="H95" t="n">
-        <v>56.5972849999999994</v>
+        <v>596.406299999999987</v>
       </c>
       <c r="I95" t="n">
-        <v>596.406299999999987</v>
+        <v>687.588870000000043</v>
       </c>
       <c r="J95" t="n">
-        <v>687.588870000000043</v>
+        <v>2.4439457</v>
       </c>
       <c r="K95" t="n">
-        <v>2.4439457</v>
-      </c>
-      <c r="L95" t="n">
         <v>318.100000000000023</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:12">
       <c r="A96" t="n">
         <v>3237</v>
       </c>
@@ -4152,31 +3865,28 @@
         <v>4380.10710000000017</v>
       </c>
       <c r="E96" t="n">
-        <v>20461129</v>
+        <v>4017.75</v>
       </c>
       <c r="F96" t="n">
-        <v>4017.75</v>
+        <v>11.0077780000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>11.0077780000000001</v>
+        <v>41.2192420000000013</v>
       </c>
       <c r="H96" t="n">
-        <v>41.2192420000000013</v>
+        <v>1214.60560000000009</v>
       </c>
       <c r="I96" t="n">
-        <v>1214.60560000000009</v>
+        <v>1745.83480000000009</v>
       </c>
       <c r="J96" t="n">
-        <v>1745.83480000000009</v>
+        <v>2.83950139999999998</v>
       </c>
       <c r="K96" t="n">
-        <v>2.83950139999999998</v>
-      </c>
-      <c r="L96" t="n">
         <v>669.700000000000045</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:12">
       <c r="A97" t="n">
         <v>3237</v>
       </c>
@@ -4190,31 +3900,28 @@
         <v>3338.83059999999978</v>
       </c>
       <c r="E97" t="n">
-        <v>20420720</v>
+        <v>4017.75</v>
       </c>
       <c r="F97" t="n">
-        <v>4017.75</v>
+        <v>8.36145529999999759</v>
       </c>
       <c r="G97" t="n">
-        <v>8.36145529999999759</v>
+        <v>70.5370110000000068</v>
       </c>
       <c r="H97" t="n">
-        <v>70.5370110000000068</v>
+        <v>1243.09780000000001</v>
       </c>
       <c r="I97" t="n">
-        <v>1243.09780000000001</v>
+        <v>879.537709999999834</v>
       </c>
       <c r="J97" t="n">
-        <v>879.537709999999834</v>
+        <v>1.70529700000000002</v>
       </c>
       <c r="K97" t="n">
-        <v>1.70529700000000002</v>
-      </c>
-      <c r="L97" t="n">
         <v>466.300000000000011</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:12">
       <c r="A98" t="n">
         <v>3237</v>
       </c>
@@ -4228,31 +3935,28 @@
         <v>3282.91620000000012</v>
       </c>
       <c r="E98" t="n">
-        <v>20400803</v>
+        <v>3287.25</v>
       </c>
       <c r="F98" t="n">
-        <v>3287.25</v>
+        <v>12.1858179999999994</v>
       </c>
       <c r="G98" t="n">
-        <v>12.1858179999999994</v>
+        <v>67.0063949999999977</v>
       </c>
       <c r="H98" t="n">
-        <v>67.0063949999999977</v>
+        <v>713.788599999999974</v>
       </c>
       <c r="I98" t="n">
-        <v>713.788599999999974</v>
+        <v>1374.83429999999998</v>
       </c>
       <c r="J98" t="n">
-        <v>1374.83429999999998</v>
+        <v>3.42197009999999979</v>
       </c>
       <c r="K98" t="n">
-        <v>3.42197009999999979</v>
-      </c>
-      <c r="L98" t="n">
         <v>444.300000000000011</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:12">
       <c r="A99" t="n">
         <v>3237</v>
       </c>
@@ -4266,31 +3970,28 @@
         <v>3327.29840000000013</v>
       </c>
       <c r="E99" t="n">
-        <v>20410730</v>
+        <v>3652.5</v>
       </c>
       <c r="F99" t="n">
-        <v>3652.5</v>
+        <v>9.94468089999999982</v>
       </c>
       <c r="G99" t="n">
-        <v>9.94468089999999982</v>
+        <v>68.5549680000000023</v>
       </c>
       <c r="H99" t="n">
-        <v>68.5549680000000023</v>
+        <v>1010.69070000000011</v>
       </c>
       <c r="I99" t="n">
-        <v>1010.69069999999999</v>
+        <v>1104.39049999999997</v>
       </c>
       <c r="J99" t="n">
-        <v>1104.39049999999997</v>
+        <v>2.35358869999999998</v>
       </c>
       <c r="K99" t="n">
-        <v>2.35358869999999998</v>
-      </c>
-      <c r="L99" t="n">
         <v>462.199999999999989</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:12">
       <c r="A100" t="n">
         <v>3237</v>
       </c>
@@ -4304,31 +4005,28 @@
         <v>4071.37339999999995</v>
       </c>
       <c r="E100" t="n">
-        <v>20430808</v>
+        <v>4017.75</v>
       </c>
       <c r="F100" t="n">
-        <v>4017.75</v>
+        <v>7.14131270000000029</v>
       </c>
       <c r="G100" t="n">
-        <v>7.14131270000000029</v>
+        <v>73.2503020000000049</v>
       </c>
       <c r="H100" t="n">
-        <v>73.2503020000000049</v>
+        <v>1900.67229999999995</v>
       </c>
       <c r="I100" t="n">
-        <v>1900.67229999999995</v>
+        <v>931.980379999999968</v>
       </c>
       <c r="J100" t="n">
-        <v>931.980379999999968</v>
+        <v>1.27169629999999989</v>
       </c>
       <c r="K100" t="n">
-        <v>1.27169629999999989</v>
-      </c>
-      <c r="L100" t="n">
         <v>488.800000000000011</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:12">
       <c r="A101" t="n">
         <v>3237</v>
       </c>
@@ -4342,31 +4040,28 @@
         <v>4092.19860000000017</v>
       </c>
       <c r="E101" t="n">
-        <v>20430807</v>
+        <v>4017.75</v>
       </c>
       <c r="F101" t="n">
-        <v>4017.75</v>
+        <v>7.14340639999999993</v>
       </c>
       <c r="G101" t="n">
-        <v>7.14340639999999993</v>
+        <v>73.2400870000000026</v>
       </c>
       <c r="H101" t="n">
-        <v>73.2400870000000026</v>
+        <v>1903.42869999999994</v>
       </c>
       <c r="I101" t="n">
-        <v>1903.42869999999994</v>
+        <v>933.948369999999954</v>
       </c>
       <c r="J101" t="n">
-        <v>933.948369999999954</v>
+        <v>1.27238870000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>1.27238870000000004</v>
-      </c>
-      <c r="L101" t="n">
         <v>505.100000000000023</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:12">
       <c r="A102" t="n">
         <v>3257</v>
       </c>
@@ -4380,31 +4075,28 @@
         <v>4258.5650999999998</v>
       </c>
       <c r="E102" t="n">
-        <v>20410219</v>
+        <v>4017.75</v>
       </c>
       <c r="F102" t="n">
-        <v>4017.75</v>
+        <v>11.3666739999999997</v>
       </c>
       <c r="G102" t="n">
-        <v>11.3666739999999997</v>
+        <v>50.2567650000000015</v>
       </c>
       <c r="H102" t="n">
-        <v>50.2567650000000015</v>
+        <v>1078.28500000000008</v>
       </c>
       <c r="I102" t="n">
-        <v>1078.28500000000008</v>
+        <v>1696.22630000000004</v>
       </c>
       <c r="J102" t="n">
-        <v>1696.22630000000004</v>
+        <v>3.01219510000000001</v>
       </c>
       <c r="K102" t="n">
-        <v>3.01219510000000001</v>
-      </c>
-      <c r="L102" t="n">
         <v>734.100000000000023</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:12">
       <c r="A103" t="n">
         <v>3257</v>
       </c>
@@ -4418,31 +4110,28 @@
         <v>3646.5619999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>20400413</v>
+        <v>4017.75</v>
       </c>
       <c r="F103" t="n">
-        <v>4017.75</v>
+        <v>13.8388530000000003</v>
       </c>
       <c r="G103" t="n">
-        <v>13.8388530000000003</v>
+        <v>50.8187270000000026</v>
       </c>
       <c r="H103" t="n">
-        <v>50.8187270000000026</v>
+        <v>550.108899999999949</v>
       </c>
       <c r="I103" t="n">
-        <v>550.108899999999949</v>
+        <v>1577.55960000000005</v>
       </c>
       <c r="J103" t="n">
-        <v>1577.55960000000005</v>
+        <v>4.31116390000000038</v>
       </c>
       <c r="K103" t="n">
-        <v>4.31116390000000038</v>
-      </c>
-      <c r="L103" t="n">
-        <v>768.899999999999977</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18">
+        <v>768.899999999999864</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" t="n">
         <v>3257</v>
       </c>
@@ -4456,31 +4145,28 @@
         <v>5284.52949999999964</v>
       </c>
       <c r="E104" t="n">
-        <v>20410530</v>
+        <v>4017.75</v>
       </c>
       <c r="F104" t="n">
-        <v>4017.75</v>
+        <v>11.8682960000000008</v>
       </c>
       <c r="G104" t="n">
-        <v>11.8682960000000008</v>
+        <v>47.3025099999999981</v>
       </c>
       <c r="H104" t="n">
-        <v>47.3025099999999981</v>
+        <v>1278.35580000000004</v>
       </c>
       <c r="I104" t="n">
-        <v>1278.35580000000004</v>
+        <v>2277.57380000000012</v>
       </c>
       <c r="J104" t="n">
-        <v>2277.57380000000012</v>
+        <v>3.26059920000000014</v>
       </c>
       <c r="K104" t="n">
-        <v>3.26059920000000014</v>
-      </c>
-      <c r="L104" t="n">
         <v>978.600000000000023</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:12">
       <c r="A105" t="n">
         <v>3257</v>
       </c>
@@ -4494,31 +4180,28 @@
         <v>3022.64980000000014</v>
       </c>
       <c r="E105" t="n">
-        <v>20410519</v>
+        <v>4017.75</v>
       </c>
       <c r="F105" t="n">
-        <v>4017.75</v>
+        <v>12.3453529999999994</v>
       </c>
       <c r="G105" t="n">
-        <v>12.3453529999999994</v>
+        <v>47.284165999999999</v>
       </c>
       <c r="H105" t="n">
-        <v>47.284165999999999</v>
+        <v>621.594200000000001</v>
       </c>
       <c r="I105" t="n">
-        <v>621.594200000000001</v>
+        <v>1244.81549999999993</v>
       </c>
       <c r="J105" t="n">
-        <v>1244.81549999999993</v>
+        <v>3.50423399999999985</v>
       </c>
       <c r="K105" t="n">
-        <v>3.50423399999999985</v>
-      </c>
-      <c r="L105" t="n">
         <v>406.300000000000011</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:12">
       <c r="A106" t="n">
         <v>3257</v>
       </c>
@@ -4532,31 +4215,28 @@
         <v>3361.53459999999995</v>
       </c>
       <c r="E106" t="n">
-        <v>20410427</v>
+        <v>4017.75</v>
       </c>
       <c r="F106" t="n">
-        <v>4017.75</v>
+        <v>12.0553650000000001</v>
       </c>
       <c r="G106" t="n">
-        <v>12.0553650000000001</v>
+        <v>47.4214470000000006</v>
       </c>
       <c r="H106" t="n">
-        <v>47.4214470000000006</v>
+        <v>731.70659999999998</v>
       </c>
       <c r="I106" t="n">
-        <v>731.70659999999998</v>
+        <v>1365.0172</v>
       </c>
       <c r="J106" t="n">
-        <v>1365.0172</v>
+        <v>3.3552894000000002</v>
       </c>
       <c r="K106" t="n">
-        <v>3.3552894000000002</v>
-      </c>
-      <c r="L106" t="n">
         <v>514.799999999999955</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:12">
       <c r="A107" t="n">
         <v>3257</v>
       </c>
@@ -4570,31 +4250,28 @@
         <v>4623.76479999999992</v>
       </c>
       <c r="E107" t="n">
-        <v>20410628</v>
+        <v>4017.75</v>
       </c>
       <c r="F107" t="n">
-        <v>4017.75</v>
+        <v>12.4700390000000016</v>
       </c>
       <c r="G107" t="n">
-        <v>12.4700389999999999</v>
+        <v>47.8070280000000025</v>
       </c>
       <c r="H107" t="n">
-        <v>47.8070280000000025</v>
+        <v>1034.19380000000001</v>
       </c>
       <c r="I107" t="n">
-        <v>1034.19380000000001</v>
+        <v>2134.91409999999996</v>
       </c>
       <c r="J107" t="n">
-        <v>2134.91409999999996</v>
+        <v>3.5690723000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>3.5690723000000002</v>
-      </c>
-      <c r="L107" t="n">
         <v>704.700000000000045</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:12">
       <c r="A108" t="n">
         <v>3257</v>
       </c>
@@ -4608,31 +4285,28 @@
         <v>4155.33569999999963</v>
       </c>
       <c r="E108" t="n">
-        <v>20420512</v>
+        <v>4017.75</v>
       </c>
       <c r="F108" t="n">
-        <v>4017.75</v>
+        <v>9.96143099999999926</v>
       </c>
       <c r="G108" t="n">
-        <v>9.96143099999999926</v>
+        <v>46.6557600000000008</v>
       </c>
       <c r="H108" t="n">
-        <v>46.6557600000000008</v>
+        <v>1319.55880000000002</v>
       </c>
       <c r="I108" t="n">
-        <v>1319.55880000000002</v>
+        <v>1448.26939999999991</v>
       </c>
       <c r="J108" t="n">
-        <v>1448.26939999999991</v>
+        <v>2.36093919999999979</v>
       </c>
       <c r="K108" t="n">
-        <v>2.36093919999999979</v>
-      </c>
-      <c r="L108" t="n">
         <v>637.5</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:12">
       <c r="A109" t="n">
         <v>3257</v>
       </c>
@@ -4646,31 +4320,28 @@
         <v>4472.8140999999996</v>
       </c>
       <c r="E109" t="n">
-        <v>20420421</v>
+        <v>3652.5</v>
       </c>
       <c r="F109" t="n">
-        <v>3652.5</v>
+        <v>10.2274360000000009</v>
       </c>
       <c r="G109" t="n">
-        <v>10.2274360000000009</v>
+        <v>47.0033779999999979</v>
       </c>
       <c r="H109" t="n">
-        <v>47.0033779999999979</v>
+        <v>1416.78199999999993</v>
       </c>
       <c r="I109" t="n">
-        <v>1416.78199999999993</v>
+        <v>1667.12300000000005</v>
       </c>
       <c r="J109" t="n">
-        <v>1667.12300000000005</v>
+        <v>2.4790011999999999</v>
       </c>
       <c r="K109" t="n">
-        <v>2.4790011999999999</v>
-      </c>
-      <c r="L109" t="n">
         <v>638.899999999999977</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:12">
       <c r="A110" t="n">
         <v>3257</v>
       </c>
@@ -4684,31 +4355,28 @@
         <v>3657.9088999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>20420522</v>
+        <v>4017.75</v>
       </c>
       <c r="F110" t="n">
-        <v>4017.75</v>
+        <v>10.0631369999999993</v>
       </c>
       <c r="G110" t="n">
-        <v>10.0631369999999993</v>
+        <v>47.0045780000000022</v>
       </c>
       <c r="H110" t="n">
-        <v>47.0045780000000022</v>
+        <v>1149.44309999999996</v>
       </c>
       <c r="I110" t="n">
-        <v>1149.44309999999996</v>
+        <v>1295.72479999999996</v>
       </c>
       <c r="J110" t="n">
-        <v>1295.72479999999996</v>
+        <v>2.40578480000000017</v>
       </c>
       <c r="K110" t="n">
-        <v>2.40578480000000017</v>
-      </c>
-      <c r="L110" t="n">
         <v>462.699999999999989</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:12">
       <c r="A111" t="n">
         <v>3257</v>
       </c>
@@ -4722,31 +4390,28 @@
         <v>4117.60829999999987</v>
       </c>
       <c r="E111" t="n">
-        <v>20410508</v>
+        <v>3652.5</v>
       </c>
       <c r="F111" t="n">
-        <v>3652.5</v>
+        <v>11.9838909999999998</v>
       </c>
       <c r="G111" t="n">
-        <v>11.9838909999999998</v>
+        <v>47.3871400000000023</v>
       </c>
       <c r="H111" t="n">
-        <v>47.3871400000000023</v>
+        <v>964.200399999999945</v>
       </c>
       <c r="I111" t="n">
-        <v>964.200399999999945</v>
+        <v>1767.44319999999993</v>
       </c>
       <c r="J111" t="n">
-        <v>1767.44319999999993</v>
+        <v>3.31898079999999984</v>
       </c>
       <c r="K111" t="n">
-        <v>3.31898079999999984</v>
-      </c>
-      <c r="L111" t="n">
         <v>636</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:12">
       <c r="A112" t="n">
         <v>3257</v>
       </c>
@@ -4760,31 +4425,28 @@
         <v>4158.51479999999992</v>
       </c>
       <c r="E112" t="n">
-        <v>20420326</v>
+        <v>4017.75</v>
       </c>
       <c r="F112" t="n">
-        <v>4017.75</v>
+        <v>10.2722859999999994</v>
       </c>
       <c r="G112" t="n">
-        <v>10.2722859999999994</v>
+        <v>46.7912639999999982</v>
       </c>
       <c r="H112" t="n">
-        <v>46.7912639999999982</v>
+        <v>1309.52119999999991</v>
       </c>
       <c r="I112" t="n">
-        <v>1309.52119999999991</v>
+        <v>1558.98890000000006</v>
       </c>
       <c r="J112" t="n">
-        <v>1558.98890000000006</v>
+        <v>2.49915259999999995</v>
       </c>
       <c r="K112" t="n">
-        <v>2.49915259999999995</v>
-      </c>
-      <c r="L112" t="n">
         <v>540</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:12">
       <c r="A113" t="n">
         <v>3257</v>
       </c>
@@ -4798,31 +4460,28 @@
         <v>4077.5616</v>
       </c>
       <c r="E113" t="n">
-        <v>20410322</v>
+        <v>3652.5</v>
       </c>
       <c r="F113" t="n">
-        <v>3652.5</v>
+        <v>12.2751900000000003</v>
       </c>
       <c r="G113" t="n">
-        <v>12.2751900000000003</v>
+        <v>47.561359000000003</v>
       </c>
       <c r="H113" t="n">
-        <v>47.561359000000003</v>
+        <v>927.095699999999965</v>
       </c>
       <c r="I113" t="n">
-        <v>927.095699999999965</v>
+        <v>1825.11390000000006</v>
       </c>
       <c r="J113" t="n">
-        <v>1825.11390000000006</v>
+        <v>3.46795819999999999</v>
       </c>
       <c r="K113" t="n">
-        <v>3.46795819999999999</v>
-      </c>
-      <c r="L113" t="n">
         <v>575.399999999999977</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:12">
       <c r="A114" t="n">
         <v>3257</v>
       </c>
@@ -4836,31 +4495,28 @@
         <v>3291.35339999999997</v>
       </c>
       <c r="E114" t="n">
-        <v>20420602</v>
+        <v>4017.75</v>
       </c>
       <c r="F114" t="n">
-        <v>4017.75</v>
+        <v>10.2276039999999995</v>
       </c>
       <c r="G114" t="n">
-        <v>10.2276039999999995</v>
+        <v>47.8572619999999986</v>
       </c>
       <c r="H114" t="n">
-        <v>47.8572619999999986</v>
+        <v>959.576299999999947</v>
       </c>
       <c r="I114" t="n">
-        <v>959.576299999999947</v>
+        <v>1129.18000000000006</v>
       </c>
       <c r="J114" t="n">
-        <v>1129.18000000000006</v>
+        <v>2.47907680000000008</v>
       </c>
       <c r="K114" t="n">
-        <v>2.47907680000000008</v>
-      </c>
-      <c r="L114" t="n">
         <v>452.600000000000023</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:12">
       <c r="A115" t="n">
         <v>3257</v>
       </c>
@@ -4874,31 +4530,28 @@
         <v>4099.20870000000014</v>
       </c>
       <c r="E115" t="n">
-        <v>20410321</v>
+        <v>3652.5</v>
       </c>
       <c r="F115" t="n">
-        <v>3652.5</v>
+        <v>12.2694069999999993</v>
       </c>
       <c r="G115" t="n">
-        <v>12.2694069999999993</v>
+        <v>47.578439000000003</v>
       </c>
       <c r="H115" t="n">
-        <v>47.578439000000003</v>
+        <v>928.756999999999948</v>
       </c>
       <c r="I115" t="n">
-        <v>928.756999999999948</v>
+        <v>1825.80449999999996</v>
       </c>
       <c r="J115" t="n">
-        <v>1825.80449999999996</v>
+        <v>3.46497469999999996</v>
       </c>
       <c r="K115" t="n">
-        <v>3.46497469999999996</v>
-      </c>
-      <c r="L115" t="n">
         <v>594.700000000000045</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:12">
       <c r="A116" t="n">
         <v>3257</v>
       </c>
@@ -4912,31 +4565,28 @@
         <v>2990.4391999999998</v>
       </c>
       <c r="E116" t="n">
-        <v>20420622</v>
+        <v>4017.75</v>
       </c>
       <c r="F116" t="n">
-        <v>4017.75</v>
+        <v>10.4835849999999997</v>
       </c>
       <c r="G116" t="n">
-        <v>10.4835849999999997</v>
+        <v>49.5312449999999984</v>
       </c>
       <c r="H116" t="n">
-        <v>49.5312449999999984</v>
+        <v>800.370800000000031</v>
       </c>
       <c r="I116" t="n">
-        <v>800.370800000000031</v>
+        <v>1006.38750000000005</v>
       </c>
       <c r="J116" t="n">
-        <v>1006.38750000000005</v>
+        <v>2.59503249999999985</v>
       </c>
       <c r="K116" t="n">
-        <v>2.59503249999999985</v>
-      </c>
-      <c r="L116" t="n">
         <v>433.699999999999989</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:12">
       <c r="A117" t="n">
         <v>3257</v>
       </c>
@@ -4950,31 +4600,28 @@
         <v>2951.38450000000012</v>
       </c>
       <c r="E117" t="n">
-        <v>20410627</v>
+        <v>3652.5</v>
       </c>
       <c r="F117" t="n">
-        <v>3652.5</v>
+        <v>13.0623780000000007</v>
       </c>
       <c r="G117" t="n">
-        <v>13.0623780000000007</v>
+        <v>49.1222980000000007</v>
       </c>
       <c r="H117" t="n">
-        <v>49.1222980000000007</v>
+        <v>527.357600000000048</v>
       </c>
       <c r="I117" t="n">
-        <v>527.357600000000048</v>
+        <v>1256.19129999999996</v>
       </c>
       <c r="J117" t="n">
-        <v>1256.19129999999996</v>
+        <v>3.88349730000000015</v>
       </c>
       <c r="K117" t="n">
-        <v>3.88349730000000015</v>
-      </c>
-      <c r="L117" t="n">
         <v>417.800000000000011</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:12">
       <c r="A118" t="n">
         <v>3257</v>
       </c>
@@ -4988,31 +4635,28 @@
         <v>4497.06720000000041</v>
       </c>
       <c r="E118" t="n">
-        <v>20430420</v>
+        <v>4017.75</v>
       </c>
       <c r="F118" t="n">
-        <v>4017.75</v>
+        <v>8.44166970000000028</v>
       </c>
       <c r="G118" t="n">
-        <v>8.44166970000000028</v>
+        <v>47.1301419999999993</v>
       </c>
       <c r="H118" t="n">
-        <v>47.1301419999999993</v>
+        <v>1800.01890000000003</v>
       </c>
       <c r="I118" t="n">
-        <v>1800.01890000000003</v>
+        <v>1303.20409999999993</v>
       </c>
       <c r="J118" t="n">
-        <v>1303.20409999999993</v>
+        <v>1.73586850000000004</v>
       </c>
       <c r="K118" t="n">
-        <v>1.73586850000000004</v>
-      </c>
-      <c r="L118" t="n">
         <v>643.899999999999977</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:12">
       <c r="A119" t="n">
         <v>3257</v>
       </c>
@@ -5026,31 +4670,28 @@
         <v>4398.23919999999998</v>
       </c>
       <c r="E119" t="n">
-        <v>20410426</v>
+        <v>3287.25</v>
       </c>
       <c r="F119" t="n">
-        <v>3287.25</v>
+        <v>12.5080500000000008</v>
       </c>
       <c r="G119" t="n">
-        <v>12.5080500000000008</v>
+        <v>47.3193819999999974</v>
       </c>
       <c r="H119" t="n">
-        <v>47.3193819999999974</v>
+        <v>980.662799999999947</v>
       </c>
       <c r="I119" t="n">
-        <v>980.662799999999947</v>
+        <v>2043.19319999999993</v>
       </c>
       <c r="J119" t="n">
-        <v>2043.19319999999993</v>
+        <v>3.58893299999999993</v>
       </c>
       <c r="K119" t="n">
-        <v>3.58893299999999993</v>
-      </c>
-      <c r="L119" t="n">
         <v>624.399999999999977</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:12">
       <c r="A120" t="n">
         <v>3257</v>
       </c>
@@ -5064,31 +4705,28 @@
         <v>4480.60350000000017</v>
       </c>
       <c r="E120" t="n">
-        <v>20420421</v>
+        <v>3652.5</v>
       </c>
       <c r="F120" t="n">
-        <v>3652.5</v>
+        <v>10.2303700000000006</v>
       </c>
       <c r="G120" t="n">
-        <v>10.2303700000000006</v>
+        <v>47.0024469999999965</v>
       </c>
       <c r="H120" t="n">
-        <v>47.0024469999999965</v>
+        <v>1417.55690000000004</v>
       </c>
       <c r="I120" t="n">
-        <v>1417.55690000000004</v>
+        <v>1669.30909999999994</v>
       </c>
       <c r="J120" t="n">
-        <v>1669.30909999999994</v>
+        <v>2.4803172</v>
       </c>
       <c r="K120" t="n">
-        <v>2.4803172</v>
-      </c>
-      <c r="L120" t="n">
         <v>643.700000000000045</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:12">
       <c r="A121" t="n">
         <v>3257</v>
       </c>
@@ -5096,37 +4734,34 @@
         <v>20.8045369999999998</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.39268429999999999</v>
+        <v>-1.3926843000000002</v>
       </c>
       <c r="D121" t="n">
         <v>4011.71439999999984</v>
       </c>
       <c r="E121" t="n">
-        <v>20430613</v>
+        <v>4017.75</v>
       </c>
       <c r="F121" t="n">
-        <v>4017.75</v>
+        <v>8.34827280000000016</v>
       </c>
       <c r="G121" t="n">
-        <v>8.34827280000000016</v>
+        <v>48.245792999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>48.245792999999999</v>
+        <v>1604.89799999999991</v>
       </c>
       <c r="I121" t="n">
-        <v>1604.89799999999991</v>
+        <v>1131.22880000000009</v>
       </c>
       <c r="J121" t="n">
-        <v>1131.22880000000009</v>
+        <v>1.7002968000000001</v>
       </c>
       <c r="K121" t="n">
-        <v>1.7002968000000001</v>
-      </c>
-      <c r="L121" t="n">
         <v>525.600000000000023</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:12">
       <c r="A122" t="n">
         <v>3257</v>
       </c>
@@ -5140,31 +4775,28 @@
         <v>3885.45269999999982</v>
       </c>
       <c r="E122" t="n">
-        <v>20410509</v>
+        <v>3287.25</v>
       </c>
       <c r="F122" t="n">
-        <v>3287.25</v>
+        <v>12.8632860000000004</v>
       </c>
       <c r="G122" t="n">
-        <v>12.8632860000000004</v>
+        <v>47.8407839999999993</v>
       </c>
       <c r="H122" t="n">
-        <v>47.8407839999999993</v>
+        <v>805.874900000000025</v>
       </c>
       <c r="I122" t="n">
-        <v>805.874900000000025</v>
+        <v>1829.77600000000007</v>
       </c>
       <c r="J122" t="n">
-        <v>1829.77600000000007</v>
+        <v>3.77664890000000009</v>
       </c>
       <c r="K122" t="n">
-        <v>3.77664890000000009</v>
-      </c>
-      <c r="L122" t="n">
         <v>499.800000000000011</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:12">
       <c r="A123" t="n">
         <v>3257</v>
       </c>
@@ -5178,31 +4810,28 @@
         <v>4005.15250000000015</v>
       </c>
       <c r="E123" t="n">
-        <v>20420613</v>
+        <v>3652.5</v>
       </c>
       <c r="F123" t="n">
-        <v>3652.5</v>
+        <v>10.1627030000000005</v>
       </c>
       <c r="G123" t="n">
-        <v>10.1627030000000005</v>
+        <v>47.8568300000000022</v>
       </c>
       <c r="H123" t="n">
-        <v>47.8568300000000022</v>
+        <v>1263.05289999999991</v>
       </c>
       <c r="I123" t="n">
-        <v>1263.05289999999991</v>
+        <v>1461.36210000000005</v>
       </c>
       <c r="J123" t="n">
-        <v>1461.36210000000005</v>
+        <v>2.45004089999999985</v>
       </c>
       <c r="K123" t="n">
-        <v>2.45004089999999985</v>
-      </c>
-      <c r="L123" t="n">
         <v>530.700000000000045</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:12">
       <c r="A124" t="n">
         <v>3257</v>
       </c>
@@ -5216,31 +4845,28 @@
         <v>3956.81680000000006</v>
       </c>
       <c r="E124" t="n">
-        <v>20430503</v>
+        <v>4017.75</v>
       </c>
       <c r="F124" t="n">
-        <v>4017.75</v>
+        <v>8.53310470000000088</v>
       </c>
       <c r="G124" t="n">
-        <v>8.53310470000000088</v>
+        <v>48.208044000000001</v>
       </c>
       <c r="H124" t="n">
-        <v>48.208044000000001</v>
+        <v>1542.92219999999998</v>
       </c>
       <c r="I124" t="n">
-        <v>1542.92219999999998</v>
+        <v>1146.56700000000001</v>
       </c>
       <c r="J124" t="n">
-        <v>1146.56700000000001</v>
+        <v>1.77101989999999994</v>
       </c>
       <c r="K124" t="n">
-        <v>1.77101989999999994</v>
-      </c>
-      <c r="L124" t="n">
         <v>517.299999999999955</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:12">
       <c r="A125" t="n">
         <v>3257</v>
       </c>
@@ -5254,31 +4880,28 @@
         <v>3878.52689999999984</v>
       </c>
       <c r="E125" t="n">
-        <v>20410509</v>
+        <v>3287.25</v>
       </c>
       <c r="F125" t="n">
-        <v>3287.25</v>
+        <v>12.8668560000000003</v>
       </c>
       <c r="G125" t="n">
-        <v>12.8668560000000003</v>
+        <v>47.8410849999999996</v>
       </c>
       <c r="H125" t="n">
-        <v>47.8410849999999996</v>
+        <v>806.503600000000006</v>
       </c>
       <c r="I125" t="n">
-        <v>806.503600000000006</v>
+        <v>1832.78109999999992</v>
       </c>
       <c r="J125" t="n">
-        <v>1832.78109999999992</v>
+        <v>3.77855439999999998</v>
       </c>
       <c r="K125" t="n">
-        <v>3.77855439999999998</v>
-      </c>
-      <c r="L125" t="n">
         <v>489.199999999999989</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:12">
       <c r="A126" t="n">
         <v>3257</v>
       </c>
@@ -5292,31 +4915,28 @@
         <v>4478.91709999999966</v>
       </c>
       <c r="E126" t="n">
-        <v>20420421</v>
+        <v>3652.5</v>
       </c>
       <c r="F126" t="n">
-        <v>3652.5</v>
+        <v>10.2295479999999994</v>
       </c>
       <c r="G126" t="n">
-        <v>10.2295479999999994</v>
+        <v>47.0027869999999979</v>
       </c>
       <c r="H126" t="n">
-        <v>47.0027869999999979</v>
+        <v>1418.07099999999991</v>
       </c>
       <c r="I126" t="n">
-        <v>1418.07099999999991</v>
+        <v>1669.55729999999994</v>
       </c>
       <c r="J126" t="n">
-        <v>1669.55729999999994</v>
+        <v>2.47994849999999989</v>
       </c>
       <c r="K126" t="n">
-        <v>2.47994849999999989</v>
-      </c>
-      <c r="L126" t="n">
         <v>641.299999999999955</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:12">
       <c r="A127" t="n">
         <v>3257</v>
       </c>
@@ -5330,31 +4950,28 @@
         <v>4027.87840000000006</v>
       </c>
       <c r="E127" t="n">
-        <v>20430612</v>
+        <v>4017.75</v>
       </c>
       <c r="F127" t="n">
-        <v>4017.75</v>
+        <v>8.35235869999999991</v>
       </c>
       <c r="G127" t="n">
-        <v>8.35235869999999991</v>
+        <v>48.2441460000000006</v>
       </c>
       <c r="H127" t="n">
-        <v>48.2441460000000006</v>
+        <v>1608.29209999999966</v>
       </c>
       <c r="I127" t="n">
-        <v>1608.29209999999989</v>
+        <v>1134.95409999999993</v>
       </c>
       <c r="J127" t="n">
-        <v>1134.95409999999993</v>
+        <v>1.70184589999999991</v>
       </c>
       <c r="K127" t="n">
-        <v>1.70184589999999991</v>
-      </c>
-      <c r="L127" t="n">
         <v>534.600000000000023</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:12">
       <c r="A128" t="n">
         <v>3257</v>
       </c>
@@ -5368,31 +4985,28 @@
         <v>3947.94300000000021</v>
       </c>
       <c r="E128" t="n">
-        <v>20410616</v>
+        <v>3287.25</v>
       </c>
       <c r="F128" t="n">
-        <v>3287.25</v>
+        <v>12.5553860000000004</v>
       </c>
       <c r="G128" t="n">
-        <v>12.5553860000000004</v>
+        <v>47.8101699999999994</v>
       </c>
       <c r="H128" t="n">
-        <v>47.8101699999999994</v>
+        <v>864.840100000000007</v>
       </c>
       <c r="I128" t="n">
-        <v>864.840100000000007</v>
+        <v>1822.70489999999995</v>
       </c>
       <c r="J128" t="n">
-        <v>1822.70489999999995</v>
+        <v>3.61372699999999991</v>
       </c>
       <c r="K128" t="n">
-        <v>3.61372699999999991</v>
-      </c>
-      <c r="L128" t="n">
         <v>510.399999999999977</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:12">
       <c r="A129" t="n">
         <v>3257</v>
       </c>
@@ -5406,27 +5020,24 @@
         <v>3978.05510000000004</v>
       </c>
       <c r="E129" t="n">
-        <v>20420614</v>
+        <v>3652.5</v>
       </c>
       <c r="F129" t="n">
-        <v>3652.5</v>
+        <v>10.1595410000000008</v>
       </c>
       <c r="G129" t="n">
-        <v>10.1595410000000008</v>
+        <v>47.8572780000000009</v>
       </c>
       <c r="H129" t="n">
-        <v>47.8572780000000009</v>
+        <v>1261.98489999999993</v>
       </c>
       <c r="I129" t="n">
-        <v>1261.98489999999993</v>
+        <v>1458.9217000000001</v>
       </c>
       <c r="J129" t="n">
-        <v>1458.9217000000001</v>
+        <v>2.4486302000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>2.4486302000000002</v>
-      </c>
-      <c r="L129" t="n">
         <v>507.199999999999989</v>
       </c>
     </row>
@@ -5434,7 +5045,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1591621661" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1591622536" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5443,8 +5054,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1591621661" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1591621661" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1591622536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1591622536" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -5453,7 +5064,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591621661" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1591622536" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
